--- a/backend/menu.xlsx
+++ b/backend/menu.xlsx
@@ -11,14 +11,14 @@
     <sheet sheetId="1" name="Лист1" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1">'export_items'!$A$1:$BE$246</definedName>
+    <definedName name="ExternalData_1">'export_items'!$A$1:$BE$245</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13773" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13717" uniqueCount="606">
   <si>
     <t>Handle</t>
   </si>
@@ -242,28 +242,22 @@
     <t>150.00</t>
   </si>
   <si>
-    <t>102.-หมูผัดฉ่า/pork</t>
-  </si>
-  <si>
-    <t>102. หมูผัดฉ่า/Pork</t>
+    <t>102.gilbey's</t>
+  </si>
+  <si>
+    <t>102.Gilbey's</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>103.-เนื้อผัดฉ่า/beef</t>
+  </si>
+  <si>
+    <t>103. เนื้อผัดฉ่า/Beef</t>
   </si>
   <si>
     <t>2. 101-108 padcha</t>
-  </si>
-  <si>
-    <t>102.gilbey's</t>
-  </si>
-  <si>
-    <t>102.Gilbey's</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>103.-เนื้อผัดฉ่า/beef</t>
-  </si>
-  <si>
-    <t>103. เนื้อผัดฉ่า/Beef</t>
   </si>
   <si>
     <t>104.-ปลาหมึกผัดฉ่า/squid</t>
@@ -2338,7 +2332,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BE246"/>
+  <dimension ref="A1:BE245"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="S53" sqref="S53"/>
@@ -3274,13 +3268,13 @@
         <v>74</v>
       </c>
       <c r="B6">
-        <v>10432</v>
+        <v>10008</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>75</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>60</v>
@@ -3325,7 +3319,7 @@
         <v>63</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>60</v>
@@ -3447,13 +3441,13 @@
         <v>77</v>
       </c>
       <c r="B7">
-        <v>10008</v>
+        <v>10433</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>60</v>
@@ -3498,7 +3492,7 @@
         <v>63</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="T7" s="1" t="s">
         <v>60</v>
@@ -3620,13 +3614,13 @@
         <v>80</v>
       </c>
       <c r="B8">
-        <v>10433</v>
+        <v>10434</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>81</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>60</v>
@@ -3793,13 +3787,13 @@
         <v>82</v>
       </c>
       <c r="B9">
-        <v>10434</v>
+        <v>10435</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>60</v>
@@ -3966,13 +3960,13 @@
         <v>84</v>
       </c>
       <c r="B10">
-        <v>10435</v>
+        <v>10436</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>60</v>
@@ -4139,13 +4133,13 @@
         <v>86</v>
       </c>
       <c r="B11">
-        <v>10436</v>
+        <v>10437</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>87</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>60</v>
@@ -4312,13 +4306,13 @@
         <v>88</v>
       </c>
       <c r="B12">
-        <v>10437</v>
+        <v>10438</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>60</v>
@@ -4363,7 +4357,7 @@
         <v>63</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="T12" s="1" t="s">
         <v>60</v>
@@ -4482,16 +4476,16 @@
     </row>
     <row r="13" ht="14.5" customHeight="1" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B13">
-        <v>10438</v>
+        <v>10352</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>60</v>
@@ -4536,7 +4530,7 @@
         <v>63</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="T13" s="1" t="s">
         <v>60</v>
@@ -4655,16 +4649,16 @@
     </row>
     <row r="14" ht="14.5" customHeight="1" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B14">
-        <v>10352</v>
+        <v>10230</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>60</v>
@@ -4709,7 +4703,7 @@
         <v>63</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="T14" s="1" t="s">
         <v>60</v>
@@ -4828,16 +4822,16 @@
     </row>
     <row r="15" ht="14.5" customHeight="1" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B15">
-        <v>10230</v>
+        <v>10439</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>60</v>
@@ -4882,7 +4876,7 @@
         <v>63</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="T15" s="1" t="s">
         <v>60</v>
@@ -5004,13 +4998,13 @@
         <v>100</v>
       </c>
       <c r="B16">
-        <v>10439</v>
+        <v>10440</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>101</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>60</v>
@@ -5055,7 +5049,7 @@
         <v>63</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="T16" s="1" t="s">
         <v>60</v>
@@ -5177,13 +5171,13 @@
         <v>102</v>
       </c>
       <c r="B17">
-        <v>10440</v>
+        <v>10441</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>60</v>
@@ -5228,7 +5222,7 @@
         <v>63</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="T17" s="1" t="s">
         <v>60</v>
@@ -5350,13 +5344,13 @@
         <v>104</v>
       </c>
       <c r="B18">
-        <v>10441</v>
+        <v>10442</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>105</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>60</v>
@@ -5401,7 +5395,7 @@
         <v>63</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="T18" s="1" t="s">
         <v>60</v>
@@ -5518,18 +5512,18 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" ht="14.5" customHeight="1" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B19">
-        <v>10442</v>
+        <v>10443</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>107</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>60</v>
@@ -5574,7 +5568,7 @@
         <v>63</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="T19" s="1" t="s">
         <v>60</v>
@@ -5696,13 +5690,13 @@
         <v>108</v>
       </c>
       <c r="B20">
-        <v>10443</v>
+        <v>10444</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>109</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>60</v>
@@ -5747,7 +5741,7 @@
         <v>63</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="T20" s="1" t="s">
         <v>60</v>
@@ -5869,13 +5863,13 @@
         <v>110</v>
       </c>
       <c r="B21">
-        <v>10444</v>
+        <v>10445</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>60</v>
@@ -5920,7 +5914,7 @@
         <v>63</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="T21" s="1" t="s">
         <v>60</v>
@@ -6042,13 +6036,13 @@
         <v>112</v>
       </c>
       <c r="B22">
-        <v>10445</v>
+        <v>10446</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>113</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>60</v>
@@ -6093,7 +6087,7 @@
         <v>63</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="T22" s="1" t="s">
         <v>60</v>
@@ -6212,16 +6206,16 @@
     </row>
     <row r="23" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B23">
+        <v>10447</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="B23">
-        <v>10446</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>60</v>
@@ -6266,7 +6260,7 @@
         <v>63</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="T23" s="1" t="s">
         <v>60</v>
@@ -6388,13 +6382,13 @@
         <v>117</v>
       </c>
       <c r="B24">
-        <v>10447</v>
+        <v>10448</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>118</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>60</v>
@@ -6561,13 +6555,13 @@
         <v>119</v>
       </c>
       <c r="B25">
-        <v>10448</v>
+        <v>10353</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>120</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>60</v>
@@ -6734,13 +6728,13 @@
         <v>121</v>
       </c>
       <c r="B26">
-        <v>10353</v>
+        <v>10232</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>122</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>60</v>
@@ -6785,7 +6779,7 @@
         <v>63</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="T26" s="1" t="s">
         <v>60</v>
@@ -6904,16 +6898,16 @@
     </row>
     <row r="27" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B27">
-        <v>10232</v>
+        <v>10449</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>60</v>
@@ -6958,7 +6952,7 @@
         <v>63</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="T27" s="1" t="s">
         <v>60</v>
@@ -7080,13 +7074,13 @@
         <v>127</v>
       </c>
       <c r="B28">
-        <v>10449</v>
+        <v>10450</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>128</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>60</v>
@@ -7253,13 +7247,13 @@
         <v>129</v>
       </c>
       <c r="B29">
-        <v>10450</v>
+        <v>10451</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>130</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>60</v>
@@ -7423,16 +7417,16 @@
     </row>
     <row r="30" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B30">
+        <v>10452</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="B30">
-        <v>10451</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>60</v>
@@ -7477,7 +7471,7 @@
         <v>63</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="T30" s="1" t="s">
         <v>60</v>
@@ -7596,16 +7590,16 @@
     </row>
     <row r="31" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B31">
-        <v>10452</v>
+        <v>10453</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>60</v>
@@ -7650,7 +7644,7 @@
         <v>63</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="T31" s="1" t="s">
         <v>60</v>
@@ -7772,13 +7766,13 @@
         <v>137</v>
       </c>
       <c r="B32">
-        <v>10453</v>
+        <v>10454</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>138</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>60</v>
@@ -7823,7 +7817,7 @@
         <v>63</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="T32" s="1" t="s">
         <v>60</v>
@@ -7945,13 +7939,13 @@
         <v>139</v>
       </c>
       <c r="B33">
-        <v>10454</v>
+        <v>10455</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>140</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>60</v>
@@ -7996,7 +7990,7 @@
         <v>63</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="T33" s="1" t="s">
         <v>60</v>
@@ -8115,16 +8109,16 @@
     </row>
     <row r="34" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B34">
+        <v>10456</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="B34">
-        <v>10455</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>60</v>
@@ -8169,7 +8163,7 @@
         <v>63</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="T34" s="1" t="s">
         <v>60</v>
@@ -8288,16 +8282,16 @@
     </row>
     <row r="35" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B35">
-        <v>10456</v>
+        <v>10457</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>60</v>
@@ -8342,7 +8336,7 @@
         <v>63</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="T35" s="1" t="s">
         <v>60</v>
@@ -8464,13 +8458,13 @@
         <v>147</v>
       </c>
       <c r="B36">
-        <v>10457</v>
+        <v>10458</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>148</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>60</v>
@@ -8515,7 +8509,7 @@
         <v>63</v>
       </c>
       <c r="S36" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="T36" s="1" t="s">
         <v>60</v>
@@ -8634,16 +8628,16 @@
     </row>
     <row r="37" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B37">
-        <v>10458</v>
+        <v>10354</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>151</v>
+        <v>94</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>60</v>
@@ -8688,7 +8682,7 @@
         <v>63</v>
       </c>
       <c r="S37" s="1" t="s">
-        <v>146</v>
+        <v>73</v>
       </c>
       <c r="T37" s="1" t="s">
         <v>60</v>
@@ -8810,13 +8804,13 @@
         <v>152</v>
       </c>
       <c r="B38">
-        <v>10354</v>
+        <v>10233</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>153</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>60</v>
@@ -8861,7 +8855,7 @@
         <v>63</v>
       </c>
       <c r="S38" s="1" t="s">
-        <v>73</v>
+        <v>154</v>
       </c>
       <c r="T38" s="1" t="s">
         <v>60</v>
@@ -8980,16 +8974,16 @@
     </row>
     <row r="39" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B39">
-        <v>10233</v>
+        <v>10459</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>60</v>
@@ -9034,7 +9028,7 @@
         <v>63</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>156</v>
+        <v>73</v>
       </c>
       <c r="T39" s="1" t="s">
         <v>60</v>
@@ -9156,13 +9150,13 @@
         <v>157</v>
       </c>
       <c r="B40">
-        <v>10459</v>
+        <v>10460</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>158</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>60</v>
@@ -9329,13 +9323,13 @@
         <v>159</v>
       </c>
       <c r="B41">
-        <v>10460</v>
+        <v>10461</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>160</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>60</v>
@@ -9499,16 +9493,16 @@
     </row>
     <row r="42" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B42">
+        <v>10462</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="B42">
-        <v>10461</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>163</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>60</v>
@@ -9675,13 +9669,13 @@
         <v>164</v>
       </c>
       <c r="B43">
-        <v>10462</v>
+        <v>10463</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>165</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>60</v>
@@ -9848,13 +9842,13 @@
         <v>166</v>
       </c>
       <c r="B44">
-        <v>10463</v>
+        <v>10464</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>167</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>60</v>
@@ -10021,13 +10015,13 @@
         <v>168</v>
       </c>
       <c r="B45">
-        <v>10464</v>
+        <v>10465</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>169</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>60</v>
@@ -10194,13 +10188,13 @@
         <v>170</v>
       </c>
       <c r="B46">
-        <v>10465</v>
+        <v>10466</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>163</v>
+        <v>60</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>60</v>
@@ -10364,16 +10358,16 @@
     </row>
     <row r="47" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B47">
-        <v>10466</v>
+        <v>10341</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>172</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>60</v>
+        <v>173</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>60</v>
@@ -10537,16 +10531,16 @@
     </row>
     <row r="48" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B48">
-        <v>10341</v>
+        <v>10234</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>60</v>
@@ -10591,7 +10585,7 @@
         <v>63</v>
       </c>
       <c r="S48" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T48" s="1" t="s">
         <v>60</v>
@@ -10710,16 +10704,16 @@
     </row>
     <row r="49" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B49">
+        <v>10235</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="B49">
-        <v>10234</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>178</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>60</v>
@@ -10764,7 +10758,7 @@
         <v>63</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="T49" s="1" t="s">
         <v>60</v>
@@ -10886,13 +10880,13 @@
         <v>179</v>
       </c>
       <c r="B50">
-        <v>10235</v>
+        <v>10342</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>180</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>60</v>
@@ -10937,7 +10931,7 @@
         <v>63</v>
       </c>
       <c r="S50" s="1" t="s">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="T50" s="1" t="s">
         <v>60</v>
@@ -11059,13 +11053,13 @@
         <v>181</v>
       </c>
       <c r="B51">
-        <v>10342</v>
+        <v>10236</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>182</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>60</v>
@@ -11110,7 +11104,7 @@
         <v>63</v>
       </c>
       <c r="S51" s="1" t="s">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="T51" s="1" t="s">
         <v>60</v>
@@ -11232,13 +11226,13 @@
         <v>183</v>
       </c>
       <c r="B52">
-        <v>10236</v>
+        <v>10343</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>184</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>60</v>
@@ -11283,7 +11277,7 @@
         <v>63</v>
       </c>
       <c r="S52" s="1" t="s">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="T52" s="1" t="s">
         <v>60</v>
@@ -11391,7 +11385,7 @@
         <v>61</v>
       </c>
       <c r="BC52" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="BD52" s="1" t="s">
         <v>61</v>
@@ -11405,13 +11399,13 @@
         <v>185</v>
       </c>
       <c r="B53">
-        <v>10343</v>
+        <v>10237</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>186</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>60</v>
@@ -11456,7 +11450,7 @@
         <v>63</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="T53" s="1" t="s">
         <v>60</v>
@@ -11564,7 +11558,7 @@
         <v>61</v>
       </c>
       <c r="BC53" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="BD53" s="1" t="s">
         <v>61</v>
@@ -11578,13 +11572,13 @@
         <v>187</v>
       </c>
       <c r="B54">
-        <v>10237</v>
+        <v>10344</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>188</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>60</v>
@@ -11629,7 +11623,7 @@
         <v>63</v>
       </c>
       <c r="S54" s="1" t="s">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="T54" s="1" t="s">
         <v>60</v>
@@ -11751,13 +11745,13 @@
         <v>189</v>
       </c>
       <c r="B55">
-        <v>10344</v>
+        <v>10238</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>190</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>60</v>
@@ -11802,7 +11796,7 @@
         <v>63</v>
       </c>
       <c r="S55" s="1" t="s">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="T55" s="1" t="s">
         <v>60</v>
@@ -11924,13 +11918,13 @@
         <v>191</v>
       </c>
       <c r="B56">
-        <v>10238</v>
+        <v>10345</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>192</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>60</v>
@@ -11975,7 +11969,7 @@
         <v>63</v>
       </c>
       <c r="S56" s="1" t="s">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="T56" s="1" t="s">
         <v>60</v>
@@ -12097,13 +12091,13 @@
         <v>193</v>
       </c>
       <c r="B57">
-        <v>10345</v>
+        <v>10239</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>194</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>60</v>
@@ -12270,13 +12264,13 @@
         <v>195</v>
       </c>
       <c r="B58">
-        <v>10239</v>
+        <v>10334</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>196</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>178</v>
+        <v>59</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>60</v>
@@ -12321,7 +12315,7 @@
         <v>63</v>
       </c>
       <c r="S58" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T58" s="1" t="s">
         <v>60</v>
@@ -12443,13 +12437,13 @@
         <v>197</v>
       </c>
       <c r="B59">
-        <v>10334</v>
+        <v>10037</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>198</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>60</v>
@@ -12494,7 +12488,7 @@
         <v>63</v>
       </c>
       <c r="S59" s="1" t="s">
-        <v>79</v>
+        <v>199</v>
       </c>
       <c r="T59" s="1" t="s">
         <v>60</v>
@@ -12613,16 +12607,16 @@
     </row>
     <row r="60" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B60">
-        <v>10037</v>
+        <v>10222</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>60</v>
@@ -12667,7 +12661,7 @@
         <v>63</v>
       </c>
       <c r="S60" s="1" t="s">
-        <v>201</v>
+        <v>73</v>
       </c>
       <c r="T60" s="1" t="s">
         <v>60</v>
@@ -12789,13 +12783,13 @@
         <v>202</v>
       </c>
       <c r="B61">
-        <v>10222</v>
+        <v>10240</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>203</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>69</v>
+        <v>204</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>60</v>
@@ -12840,7 +12834,7 @@
         <v>63</v>
       </c>
       <c r="S61" s="1" t="s">
-        <v>73</v>
+        <v>205</v>
       </c>
       <c r="T61" s="1" t="s">
         <v>60</v>
@@ -12945,7 +12939,7 @@
         <v>61</v>
       </c>
       <c r="BB61" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="BC61" s="1" t="s">
         <v>61</v>
@@ -12959,16 +12953,16 @@
     </row>
     <row r="62" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B62">
-        <v>10240</v>
+        <v>10346</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>206</v>
+        <v>173</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>60</v>
@@ -13013,7 +13007,7 @@
         <v>63</v>
       </c>
       <c r="S62" s="1" t="s">
-        <v>207</v>
+        <v>124</v>
       </c>
       <c r="T62" s="1" t="s">
         <v>60</v>
@@ -13118,7 +13112,7 @@
         <v>61</v>
       </c>
       <c r="BB62" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="BC62" s="1" t="s">
         <v>61</v>
@@ -13135,13 +13129,13 @@
         <v>208</v>
       </c>
       <c r="B63">
-        <v>10346</v>
+        <v>10241</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>209</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>175</v>
+        <v>204</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>60</v>
@@ -13186,7 +13180,7 @@
         <v>63</v>
       </c>
       <c r="S63" s="1" t="s">
-        <v>126</v>
+        <v>205</v>
       </c>
       <c r="T63" s="1" t="s">
         <v>60</v>
@@ -13291,7 +13285,7 @@
         <v>61</v>
       </c>
       <c r="BB63" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="BC63" s="1" t="s">
         <v>61</v>
@@ -13308,13 +13302,13 @@
         <v>210</v>
       </c>
       <c r="B64">
-        <v>10241</v>
+        <v>10347</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>211</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>206</v>
+        <v>173</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>60</v>
@@ -13359,7 +13353,7 @@
         <v>63</v>
       </c>
       <c r="S64" s="1" t="s">
-        <v>207</v>
+        <v>124</v>
       </c>
       <c r="T64" s="1" t="s">
         <v>60</v>
@@ -13464,7 +13458,7 @@
         <v>61</v>
       </c>
       <c r="BB64" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="BC64" s="1" t="s">
         <v>61</v>
@@ -13481,13 +13475,13 @@
         <v>212</v>
       </c>
       <c r="B65">
-        <v>10347</v>
+        <v>10242</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>213</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>175</v>
+        <v>204</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>60</v>
@@ -13532,7 +13526,7 @@
         <v>63</v>
       </c>
       <c r="S65" s="1" t="s">
-        <v>126</v>
+        <v>214</v>
       </c>
       <c r="T65" s="1" t="s">
         <v>60</v>
@@ -13637,7 +13631,7 @@
         <v>61</v>
       </c>
       <c r="BB65" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="BC65" s="1" t="s">
         <v>61</v>
@@ -13651,16 +13645,16 @@
     </row>
     <row r="66" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B66">
-        <v>10242</v>
+        <v>10348</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>206</v>
+        <v>173</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>60</v>
@@ -13705,7 +13699,7 @@
         <v>63</v>
       </c>
       <c r="S66" s="1" t="s">
-        <v>216</v>
+        <v>124</v>
       </c>
       <c r="T66" s="1" t="s">
         <v>60</v>
@@ -13810,7 +13804,7 @@
         <v>61</v>
       </c>
       <c r="BB66" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="BC66" s="1" t="s">
         <v>61</v>
@@ -13827,13 +13821,13 @@
         <v>217</v>
       </c>
       <c r="B67">
-        <v>10348</v>
+        <v>10243</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>218</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>175</v>
+        <v>204</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>60</v>
@@ -13878,7 +13872,7 @@
         <v>63</v>
       </c>
       <c r="S67" s="1" t="s">
-        <v>126</v>
+        <v>214</v>
       </c>
       <c r="T67" s="1" t="s">
         <v>60</v>
@@ -13983,7 +13977,7 @@
         <v>61</v>
       </c>
       <c r="BB67" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="BC67" s="1" t="s">
         <v>61</v>
@@ -14000,13 +13994,13 @@
         <v>219</v>
       </c>
       <c r="B68">
-        <v>10243</v>
+        <v>10365</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>206</v>
+        <v>173</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>60</v>
@@ -14051,7 +14045,7 @@
         <v>63</v>
       </c>
       <c r="S68" s="1" t="s">
-        <v>216</v>
+        <v>73</v>
       </c>
       <c r="T68" s="1" t="s">
         <v>60</v>
@@ -14156,7 +14150,7 @@
         <v>61</v>
       </c>
       <c r="BB68" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="BC68" s="1" t="s">
         <v>61</v>
@@ -14170,16 +14164,16 @@
     </row>
     <row r="69" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B69">
-        <v>10365</v>
+        <v>10349</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>221</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>60</v>
@@ -14224,7 +14218,7 @@
         <v>63</v>
       </c>
       <c r="S69" s="1" t="s">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="T69" s="1" t="s">
         <v>60</v>
@@ -14332,7 +14326,7 @@
         <v>61</v>
       </c>
       <c r="BC69" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="BD69" s="1" t="s">
         <v>61</v>
@@ -14346,13 +14340,13 @@
         <v>222</v>
       </c>
       <c r="B70">
-        <v>10349</v>
+        <v>10244</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>223</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>175</v>
+        <v>204</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>60</v>
@@ -14397,7 +14391,7 @@
         <v>63</v>
       </c>
       <c r="S70" s="1" t="s">
-        <v>136</v>
+        <v>214</v>
       </c>
       <c r="T70" s="1" t="s">
         <v>60</v>
@@ -14502,10 +14496,10 @@
         <v>61</v>
       </c>
       <c r="BB70" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="BC70" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="BD70" s="1" t="s">
         <v>61</v>
@@ -14519,13 +14513,13 @@
         <v>224</v>
       </c>
       <c r="B71">
-        <v>10244</v>
+        <v>10350</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>225</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>206</v>
+        <v>173</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>60</v>
@@ -14570,7 +14564,7 @@
         <v>63</v>
       </c>
       <c r="S71" s="1" t="s">
-        <v>216</v>
+        <v>76</v>
       </c>
       <c r="T71" s="1" t="s">
         <v>60</v>
@@ -14675,7 +14669,7 @@
         <v>61</v>
       </c>
       <c r="BB71" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="BC71" s="1" t="s">
         <v>61</v>
@@ -14692,13 +14686,13 @@
         <v>226</v>
       </c>
       <c r="B72">
-        <v>10350</v>
+        <v>10245</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>227</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>175</v>
+        <v>204</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>60</v>
@@ -14743,7 +14737,7 @@
         <v>63</v>
       </c>
       <c r="S72" s="1" t="s">
-        <v>79</v>
+        <v>214</v>
       </c>
       <c r="T72" s="1" t="s">
         <v>60</v>
@@ -14848,7 +14842,7 @@
         <v>61</v>
       </c>
       <c r="BB72" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="BC72" s="1" t="s">
         <v>61</v>
@@ -14865,13 +14859,13 @@
         <v>228</v>
       </c>
       <c r="B73">
-        <v>10245</v>
+        <v>10355</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>229</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>60</v>
@@ -14916,7 +14910,7 @@
         <v>63</v>
       </c>
       <c r="S73" s="1" t="s">
-        <v>216</v>
+        <v>73</v>
       </c>
       <c r="T73" s="1" t="s">
         <v>60</v>
@@ -15021,7 +15015,7 @@
         <v>61</v>
       </c>
       <c r="BB73" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="BC73" s="1" t="s">
         <v>61</v>
@@ -15035,16 +15029,16 @@
     </row>
     <row r="74" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B74">
-        <v>10355</v>
+        <v>10246</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>60</v>
@@ -15089,7 +15083,7 @@
         <v>63</v>
       </c>
       <c r="S74" s="1" t="s">
-        <v>73</v>
+        <v>233</v>
       </c>
       <c r="T74" s="1" t="s">
         <v>60</v>
@@ -15194,7 +15188,7 @@
         <v>61</v>
       </c>
       <c r="BB74" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="BC74" s="1" t="s">
         <v>61</v>
@@ -15208,16 +15202,16 @@
     </row>
     <row r="75" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B75">
-        <v>10246</v>
+        <v>10356</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>60</v>
@@ -15262,7 +15256,7 @@
         <v>63</v>
       </c>
       <c r="S75" s="1" t="s">
-        <v>235</v>
+        <v>73</v>
       </c>
       <c r="T75" s="1" t="s">
         <v>60</v>
@@ -15367,7 +15361,7 @@
         <v>61</v>
       </c>
       <c r="BB75" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="BC75" s="1" t="s">
         <v>61</v>
@@ -15384,13 +15378,13 @@
         <v>236</v>
       </c>
       <c r="B76">
-        <v>10356</v>
+        <v>10247</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>237</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>60</v>
@@ -15435,7 +15429,7 @@
         <v>63</v>
       </c>
       <c r="S76" s="1" t="s">
-        <v>73</v>
+        <v>233</v>
       </c>
       <c r="T76" s="1" t="s">
         <v>60</v>
@@ -15540,7 +15534,7 @@
         <v>61</v>
       </c>
       <c r="BB76" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="BC76" s="1" t="s">
         <v>61</v>
@@ -15557,13 +15551,13 @@
         <v>238</v>
       </c>
       <c r="B77">
-        <v>10247</v>
+        <v>10248</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>239</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>60</v>
@@ -15608,7 +15602,7 @@
         <v>63</v>
       </c>
       <c r="S77" s="1" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="T77" s="1" t="s">
         <v>60</v>
@@ -15727,16 +15721,16 @@
     </row>
     <row r="78" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B78">
-        <v>10248</v>
+        <v>10357</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>60</v>
@@ -15781,7 +15775,7 @@
         <v>63</v>
       </c>
       <c r="S78" s="1" t="s">
-        <v>242</v>
+        <v>73</v>
       </c>
       <c r="T78" s="1" t="s">
         <v>60</v>
@@ -15886,7 +15880,7 @@
         <v>61</v>
       </c>
       <c r="BB78" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="BC78" s="1" t="s">
         <v>61</v>
@@ -15903,13 +15897,13 @@
         <v>243</v>
       </c>
       <c r="B79">
-        <v>10357</v>
+        <v>10358</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>244</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>60</v>
@@ -16076,13 +16070,13 @@
         <v>245</v>
       </c>
       <c r="B80">
-        <v>10358</v>
+        <v>10249</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>246</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>60</v>
@@ -16127,7 +16121,7 @@
         <v>63</v>
       </c>
       <c r="S80" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T80" s="1" t="s">
         <v>60</v>
@@ -16246,16 +16240,16 @@
     </row>
     <row r="81" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B81">
-        <v>10249</v>
+        <v>10335</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>249</v>
+        <v>59</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>60</v>
@@ -16300,7 +16294,7 @@
         <v>63</v>
       </c>
       <c r="S81" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="T81" s="1" t="s">
         <v>60</v>
@@ -16422,13 +16416,13 @@
         <v>250</v>
       </c>
       <c r="B82">
-        <v>10335</v>
+        <v>10038</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>251</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>60</v>
@@ -16473,7 +16467,7 @@
         <v>63</v>
       </c>
       <c r="S82" s="1" t="s">
-        <v>79</v>
+        <v>252</v>
       </c>
       <c r="T82" s="1" t="s">
         <v>60</v>
@@ -16592,16 +16586,16 @@
     </row>
     <row r="83" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B83">
-        <v>10038</v>
+        <v>10223</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>60</v>
@@ -16646,7 +16640,7 @@
         <v>63</v>
       </c>
       <c r="S83" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="T83" s="1" t="s">
         <v>60</v>
@@ -16765,16 +16759,16 @@
     </row>
     <row r="84" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B84">
-        <v>10223</v>
+        <v>10250</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>69</v>
+        <v>247</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>60</v>
@@ -16819,7 +16813,7 @@
         <v>63</v>
       </c>
       <c r="S84" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="T84" s="1" t="s">
         <v>60</v>
@@ -16938,16 +16932,16 @@
     </row>
     <row r="85" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B85">
-        <v>10250</v>
+        <v>10359</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>60</v>
@@ -16992,7 +16986,7 @@
         <v>63</v>
       </c>
       <c r="S85" s="1" t="s">
-        <v>260</v>
+        <v>73</v>
       </c>
       <c r="T85" s="1" t="s">
         <v>60</v>
@@ -17114,13 +17108,13 @@
         <v>261</v>
       </c>
       <c r="B86">
-        <v>10359</v>
+        <v>10033</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>262</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>232</v>
+        <v>263</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>60</v>
@@ -17165,7 +17159,7 @@
         <v>63</v>
       </c>
       <c r="S86" s="1" t="s">
-        <v>73</v>
+        <v>255</v>
       </c>
       <c r="T86" s="1" t="s">
         <v>60</v>
@@ -17284,16 +17278,16 @@
     </row>
     <row r="87" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B87">
+        <v>10034</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D87" s="1" t="s">
         <v>263</v>
-      </c>
-      <c r="B87">
-        <v>10033</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>265</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>60</v>
@@ -17338,7 +17332,7 @@
         <v>63</v>
       </c>
       <c r="S87" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="T87" s="1" t="s">
         <v>60</v>
@@ -17460,13 +17454,13 @@
         <v>266</v>
       </c>
       <c r="B88">
-        <v>10034</v>
+        <v>10360</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>267</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>265</v>
+        <v>230</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>60</v>
@@ -17511,7 +17505,7 @@
         <v>63</v>
       </c>
       <c r="S88" s="1" t="s">
-        <v>257</v>
+        <v>73</v>
       </c>
       <c r="T88" s="1" t="s">
         <v>60</v>
@@ -17633,13 +17627,13 @@
         <v>268</v>
       </c>
       <c r="B89">
-        <v>10360</v>
+        <v>10251</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>269</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>60</v>
@@ -17684,7 +17678,7 @@
         <v>63</v>
       </c>
       <c r="S89" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T89" s="1" t="s">
         <v>60</v>
@@ -17806,13 +17800,13 @@
         <v>270</v>
       </c>
       <c r="B90">
-        <v>10251</v>
+        <v>10252</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>271</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>60</v>
@@ -17857,7 +17851,7 @@
         <v>63</v>
       </c>
       <c r="S90" s="1" t="s">
-        <v>79</v>
+        <v>255</v>
       </c>
       <c r="T90" s="1" t="s">
         <v>60</v>
@@ -17979,13 +17973,13 @@
         <v>272</v>
       </c>
       <c r="B91">
-        <v>10252</v>
+        <v>10035</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>273</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>60</v>
@@ -18030,7 +18024,7 @@
         <v>63</v>
       </c>
       <c r="S91" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="T91" s="1" t="s">
         <v>60</v>
@@ -18152,13 +18146,13 @@
         <v>274</v>
       </c>
       <c r="B92">
-        <v>10035</v>
+        <v>10361</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>275</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>265</v>
+        <v>230</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>60</v>
@@ -18203,7 +18197,7 @@
         <v>63</v>
       </c>
       <c r="S92" s="1" t="s">
-        <v>257</v>
+        <v>73</v>
       </c>
       <c r="T92" s="1" t="s">
         <v>60</v>
@@ -18325,13 +18319,13 @@
         <v>276</v>
       </c>
       <c r="B93">
-        <v>10361</v>
+        <v>10253</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>277</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>60</v>
@@ -18376,7 +18370,7 @@
         <v>63</v>
       </c>
       <c r="S93" s="1" t="s">
-        <v>73</v>
+        <v>258</v>
       </c>
       <c r="T93" s="1" t="s">
         <v>60</v>
@@ -18498,13 +18492,13 @@
         <v>278</v>
       </c>
       <c r="B94">
-        <v>10253</v>
+        <v>10362</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>279</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>60</v>
@@ -18549,7 +18543,7 @@
         <v>63</v>
       </c>
       <c r="S94" s="1" t="s">
-        <v>260</v>
+        <v>73</v>
       </c>
       <c r="T94" s="1" t="s">
         <v>60</v>
@@ -18671,13 +18665,13 @@
         <v>280</v>
       </c>
       <c r="B95">
-        <v>10362</v>
+        <v>10036</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>281</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>232</v>
+        <v>263</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>60</v>
@@ -18722,7 +18716,7 @@
         <v>63</v>
       </c>
       <c r="S95" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T95" s="1" t="s">
         <v>60</v>
@@ -18844,13 +18838,13 @@
         <v>282</v>
       </c>
       <c r="B96">
-        <v>10036</v>
+        <v>10254</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>283</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>60</v>
@@ -18895,7 +18889,7 @@
         <v>63</v>
       </c>
       <c r="S96" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="T96" s="1" t="s">
         <v>60</v>
@@ -19017,13 +19011,13 @@
         <v>284</v>
       </c>
       <c r="B97">
-        <v>10254</v>
+        <v>10363</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>285</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>60</v>
@@ -19068,7 +19062,7 @@
         <v>63</v>
       </c>
       <c r="S97" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="T97" s="1" t="s">
         <v>60</v>
@@ -19190,13 +19184,13 @@
         <v>286</v>
       </c>
       <c r="B98">
-        <v>10363</v>
+        <v>10255</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>287</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>232</v>
+        <v>288</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>60</v>
@@ -19241,7 +19235,7 @@
         <v>63</v>
       </c>
       <c r="S98" s="1" t="s">
-        <v>73</v>
+        <v>289</v>
       </c>
       <c r="T98" s="1" t="s">
         <v>60</v>
@@ -19360,16 +19354,16 @@
     </row>
     <row r="99" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B99">
-        <v>10255</v>
+        <v>10364</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>290</v>
+        <v>230</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>60</v>
@@ -19414,7 +19408,7 @@
         <v>63</v>
       </c>
       <c r="S99" s="1" t="s">
-        <v>291</v>
+        <v>134</v>
       </c>
       <c r="T99" s="1" t="s">
         <v>60</v>
@@ -19533,16 +19527,16 @@
     </row>
     <row r="100" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B100">
-        <v>10364</v>
+        <v>10256</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>292</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>232</v>
+        <v>288</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>60</v>
@@ -19587,7 +19581,7 @@
         <v>63</v>
       </c>
       <c r="S100" s="1" t="s">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="T100" s="1" t="s">
         <v>60</v>
@@ -19709,13 +19703,13 @@
         <v>293</v>
       </c>
       <c r="B101">
-        <v>10256</v>
+        <v>10366</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>294</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>60</v>
@@ -19760,7 +19754,7 @@
         <v>63</v>
       </c>
       <c r="S101" s="1" t="s">
-        <v>79</v>
+        <v>255</v>
       </c>
       <c r="T101" s="1" t="s">
         <v>60</v>
@@ -19879,16 +19873,16 @@
     </row>
     <row r="102" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B102">
-        <v>10366</v>
+        <v>10257</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>60</v>
@@ -19933,7 +19927,7 @@
         <v>63</v>
       </c>
       <c r="S102" s="1" t="s">
-        <v>257</v>
+        <v>76</v>
       </c>
       <c r="T102" s="1" t="s">
         <v>60</v>
@@ -20055,13 +20049,13 @@
         <v>298</v>
       </c>
       <c r="B103">
-        <v>10257</v>
+        <v>10367</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>299</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>60</v>
@@ -20106,7 +20100,7 @@
         <v>63</v>
       </c>
       <c r="S103" s="1" t="s">
-        <v>79</v>
+        <v>255</v>
       </c>
       <c r="T103" s="1" t="s">
         <v>60</v>
@@ -20228,13 +20222,13 @@
         <v>300</v>
       </c>
       <c r="B104">
-        <v>10367</v>
+        <v>10368</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>301</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>60</v>
@@ -20279,7 +20273,7 @@
         <v>63</v>
       </c>
       <c r="S104" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="T104" s="1" t="s">
         <v>60</v>
@@ -20401,13 +20395,13 @@
         <v>302</v>
       </c>
       <c r="B105">
-        <v>10368</v>
+        <v>10258</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>303</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>60</v>
@@ -20452,7 +20446,7 @@
         <v>63</v>
       </c>
       <c r="S105" s="1" t="s">
-        <v>257</v>
+        <v>304</v>
       </c>
       <c r="T105" s="1" t="s">
         <v>60</v>
@@ -20571,16 +20565,16 @@
     </row>
     <row r="106" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B106">
-        <v>10258</v>
+        <v>10369</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>60</v>
@@ -20625,7 +20619,7 @@
         <v>63</v>
       </c>
       <c r="S106" s="1" t="s">
-        <v>306</v>
+        <v>255</v>
       </c>
       <c r="T106" s="1" t="s">
         <v>60</v>
@@ -20747,13 +20741,13 @@
         <v>307</v>
       </c>
       <c r="B107">
-        <v>10369</v>
+        <v>10259</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>308</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>60</v>
@@ -20798,7 +20792,7 @@
         <v>63</v>
       </c>
       <c r="S107" s="1" t="s">
-        <v>257</v>
+        <v>124</v>
       </c>
       <c r="T107" s="1" t="s">
         <v>60</v>
@@ -20920,13 +20914,13 @@
         <v>309</v>
       </c>
       <c r="B108">
-        <v>10259</v>
+        <v>10044</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>310</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>290</v>
+        <v>204</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>60</v>
@@ -20971,7 +20965,7 @@
         <v>63</v>
       </c>
       <c r="S108" s="1" t="s">
-        <v>126</v>
+        <v>311</v>
       </c>
       <c r="T108" s="1" t="s">
         <v>60</v>
@@ -21090,16 +21084,16 @@
     </row>
     <row r="109" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B109">
-        <v>10044</v>
+        <v>10336</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>206</v>
+        <v>59</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>60</v>
@@ -21144,7 +21138,7 @@
         <v>63</v>
       </c>
       <c r="S109" s="1" t="s">
-        <v>313</v>
+        <v>76</v>
       </c>
       <c r="T109" s="1" t="s">
         <v>60</v>
@@ -21266,13 +21260,13 @@
         <v>314</v>
       </c>
       <c r="B110">
-        <v>10336</v>
+        <v>10224</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>315</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>60</v>
@@ -21317,7 +21311,7 @@
         <v>63</v>
       </c>
       <c r="S110" s="1" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="T110" s="1" t="s">
         <v>60</v>
@@ -21439,13 +21433,13 @@
         <v>316</v>
       </c>
       <c r="B111">
-        <v>10224</v>
+        <v>10370</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>317</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>69</v>
+        <v>318</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>60</v>
@@ -21490,7 +21484,7 @@
         <v>63</v>
       </c>
       <c r="S111" s="1" t="s">
-        <v>126</v>
+        <v>319</v>
       </c>
       <c r="T111" s="1" t="s">
         <v>60</v>
@@ -21609,16 +21603,16 @@
     </row>
     <row r="112" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B112">
-        <v>10370</v>
+        <v>10260</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>320</v>
+        <v>288</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>60</v>
@@ -21663,7 +21657,7 @@
         <v>63</v>
       </c>
       <c r="S112" s="1" t="s">
-        <v>321</v>
+        <v>124</v>
       </c>
       <c r="T112" s="1" t="s">
         <v>60</v>
@@ -21785,13 +21779,13 @@
         <v>322</v>
       </c>
       <c r="B113">
-        <v>10260</v>
+        <v>10261</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>323</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>290</v>
+        <v>324</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>60</v>
@@ -21836,7 +21830,7 @@
         <v>63</v>
       </c>
       <c r="S113" s="1" t="s">
-        <v>126</v>
+        <v>304</v>
       </c>
       <c r="T113" s="1" t="s">
         <v>60</v>
@@ -21955,16 +21949,16 @@
     </row>
     <row r="114" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B114">
-        <v>10261</v>
+        <v>10371</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>60</v>
@@ -22009,7 +22003,7 @@
         <v>63</v>
       </c>
       <c r="S114" s="1" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="T114" s="1" t="s">
         <v>60</v>
@@ -22131,13 +22125,13 @@
         <v>327</v>
       </c>
       <c r="B115">
-        <v>10371</v>
+        <v>10194</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>328</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>320</v>
+        <v>60</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>60</v>
@@ -22182,7 +22176,7 @@
         <v>63</v>
       </c>
       <c r="S115" s="1" t="s">
-        <v>321</v>
+        <v>73</v>
       </c>
       <c r="T115" s="1" t="s">
         <v>60</v>
@@ -22266,7 +22260,7 @@
         <v>61</v>
       </c>
       <c r="AU115" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AV115" s="1" t="s">
         <v>61</v>
@@ -22304,13 +22298,13 @@
         <v>329</v>
       </c>
       <c r="B116">
-        <v>10194</v>
+        <v>10372</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>330</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>60</v>
+        <v>318</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>60</v>
@@ -22355,7 +22349,7 @@
         <v>63</v>
       </c>
       <c r="S116" s="1" t="s">
-        <v>73</v>
+        <v>319</v>
       </c>
       <c r="T116" s="1" t="s">
         <v>60</v>
@@ -22439,7 +22433,7 @@
         <v>61</v>
       </c>
       <c r="AU116" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AV116" s="1" t="s">
         <v>61</v>
@@ -22477,13 +22471,13 @@
         <v>331</v>
       </c>
       <c r="B117">
-        <v>10372</v>
+        <v>10262</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>332</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>60</v>
@@ -22528,7 +22522,7 @@
         <v>63</v>
       </c>
       <c r="S117" s="1" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="T117" s="1" t="s">
         <v>60</v>
@@ -22647,16 +22641,16 @@
     </row>
     <row r="118" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B118">
-        <v>10262</v>
+        <v>10021</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>326</v>
+        <v>263</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>60</v>
@@ -22701,7 +22695,7 @@
         <v>63</v>
       </c>
       <c r="S118" s="1" t="s">
-        <v>335</v>
+        <v>255</v>
       </c>
       <c r="T118" s="1" t="s">
         <v>60</v>
@@ -22823,13 +22817,13 @@
         <v>336</v>
       </c>
       <c r="B119">
-        <v>10021</v>
+        <v>10373</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>337</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>265</v>
+        <v>318</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>60</v>
@@ -22874,7 +22868,7 @@
         <v>63</v>
       </c>
       <c r="S119" s="1" t="s">
-        <v>257</v>
+        <v>319</v>
       </c>
       <c r="T119" s="1" t="s">
         <v>60</v>
@@ -22996,13 +22990,13 @@
         <v>338</v>
       </c>
       <c r="B120">
-        <v>10373</v>
+        <v>10263</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>339</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>60</v>
@@ -23047,7 +23041,7 @@
         <v>63</v>
       </c>
       <c r="S120" s="1" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="T120" s="1" t="s">
         <v>60</v>
@@ -23169,13 +23163,13 @@
         <v>340</v>
       </c>
       <c r="B121">
-        <v>10263</v>
+        <v>10374</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>341</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>60</v>
@@ -23220,7 +23214,7 @@
         <v>63</v>
       </c>
       <c r="S121" s="1" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="T121" s="1" t="s">
         <v>60</v>
@@ -23342,13 +23336,13 @@
         <v>342</v>
       </c>
       <c r="B122">
-        <v>10374</v>
+        <v>10264</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>343</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>60</v>
@@ -23393,7 +23387,7 @@
         <v>63</v>
       </c>
       <c r="S122" s="1" t="s">
-        <v>321</v>
+        <v>258</v>
       </c>
       <c r="T122" s="1" t="s">
         <v>60</v>
@@ -23515,13 +23509,13 @@
         <v>344</v>
       </c>
       <c r="B123">
-        <v>10264</v>
+        <v>10375</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>345</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>60</v>
@@ -23566,7 +23560,7 @@
         <v>63</v>
       </c>
       <c r="S123" s="1" t="s">
-        <v>260</v>
+        <v>319</v>
       </c>
       <c r="T123" s="1" t="s">
         <v>60</v>
@@ -23688,13 +23682,13 @@
         <v>346</v>
       </c>
       <c r="B124">
-        <v>10375</v>
+        <v>10265</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>347</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>60</v>
@@ -23739,7 +23733,7 @@
         <v>63</v>
       </c>
       <c r="S124" s="1" t="s">
-        <v>321</v>
+        <v>255</v>
       </c>
       <c r="T124" s="1" t="s">
         <v>60</v>
@@ -23861,13 +23855,13 @@
         <v>348</v>
       </c>
       <c r="B125">
-        <v>10265</v>
+        <v>10376</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>349</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>60</v>
@@ -23912,7 +23906,7 @@
         <v>63</v>
       </c>
       <c r="S125" s="1" t="s">
-        <v>257</v>
+        <v>73</v>
       </c>
       <c r="T125" s="1" t="s">
         <v>60</v>
@@ -24034,13 +24028,13 @@
         <v>350</v>
       </c>
       <c r="B126">
-        <v>10376</v>
+        <v>10266</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>351</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>60</v>
@@ -24085,7 +24079,7 @@
         <v>63</v>
       </c>
       <c r="S126" s="1" t="s">
-        <v>73</v>
+        <v>255</v>
       </c>
       <c r="T126" s="1" t="s">
         <v>60</v>
@@ -24133,7 +24127,7 @@
         <v>61</v>
       </c>
       <c r="AI126" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AJ126" s="1" t="s">
         <v>61</v>
@@ -24207,13 +24201,13 @@
         <v>352</v>
       </c>
       <c r="B127">
-        <v>10266</v>
+        <v>10377</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>353</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>60</v>
@@ -24258,7 +24252,7 @@
         <v>63</v>
       </c>
       <c r="S127" s="1" t="s">
-        <v>257</v>
+        <v>73</v>
       </c>
       <c r="T127" s="1" t="s">
         <v>60</v>
@@ -24306,7 +24300,7 @@
         <v>61</v>
       </c>
       <c r="AI127" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AJ127" s="1" t="s">
         <v>61</v>
@@ -24380,13 +24374,13 @@
         <v>354</v>
       </c>
       <c r="B128">
-        <v>10377</v>
+        <v>10267</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>355</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>60</v>
@@ -24431,7 +24425,7 @@
         <v>63</v>
       </c>
       <c r="S128" s="1" t="s">
-        <v>73</v>
+        <v>255</v>
       </c>
       <c r="T128" s="1" t="s">
         <v>60</v>
@@ -24479,7 +24473,7 @@
         <v>61</v>
       </c>
       <c r="AI128" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AJ128" s="1" t="s">
         <v>61</v>
@@ -24553,13 +24547,13 @@
         <v>356</v>
       </c>
       <c r="B129">
-        <v>10267</v>
+        <v>10378</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>357</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>60</v>
@@ -24604,7 +24598,7 @@
         <v>63</v>
       </c>
       <c r="S129" s="1" t="s">
-        <v>257</v>
+        <v>73</v>
       </c>
       <c r="T129" s="1" t="s">
         <v>60</v>
@@ -24652,7 +24646,7 @@
         <v>61</v>
       </c>
       <c r="AI129" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AJ129" s="1" t="s">
         <v>61</v>
@@ -24726,13 +24720,13 @@
         <v>358</v>
       </c>
       <c r="B130">
-        <v>10378</v>
+        <v>10268</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>359</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>60</v>
@@ -24777,7 +24771,7 @@
         <v>63</v>
       </c>
       <c r="S130" s="1" t="s">
-        <v>73</v>
+        <v>255</v>
       </c>
       <c r="T130" s="1" t="s">
         <v>60</v>
@@ -24825,7 +24819,7 @@
         <v>61</v>
       </c>
       <c r="AI130" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AJ130" s="1" t="s">
         <v>61</v>
@@ -24899,13 +24893,13 @@
         <v>360</v>
       </c>
       <c r="B131">
-        <v>10268</v>
+        <v>10379</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>361</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>326</v>
+        <v>362</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>60</v>
@@ -24950,7 +24944,7 @@
         <v>63</v>
       </c>
       <c r="S131" s="1" t="s">
-        <v>257</v>
+        <v>124</v>
       </c>
       <c r="T131" s="1" t="s">
         <v>60</v>
@@ -24998,7 +24992,7 @@
         <v>61</v>
       </c>
       <c r="AI131" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AJ131" s="1" t="s">
         <v>61</v>
@@ -25069,16 +25063,16 @@
     </row>
     <row r="132" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B132">
-        <v>10379</v>
+        <v>10269</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>364</v>
+        <v>324</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>60</v>
@@ -25123,7 +25117,7 @@
         <v>63</v>
       </c>
       <c r="S132" s="1" t="s">
-        <v>126</v>
+        <v>255</v>
       </c>
       <c r="T132" s="1" t="s">
         <v>60</v>
@@ -25171,7 +25165,7 @@
         <v>61</v>
       </c>
       <c r="AI132" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AJ132" s="1" t="s">
         <v>61</v>
@@ -25245,13 +25239,13 @@
         <v>365</v>
       </c>
       <c r="B133">
-        <v>10269</v>
+        <v>10225</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>366</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>326</v>
+        <v>69</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>60</v>
@@ -25296,7 +25290,7 @@
         <v>63</v>
       </c>
       <c r="S133" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="T133" s="1" t="s">
         <v>60</v>
@@ -25344,7 +25338,7 @@
         <v>61</v>
       </c>
       <c r="AI133" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AJ133" s="1" t="s">
         <v>61</v>
@@ -25418,13 +25412,13 @@
         <v>367</v>
       </c>
       <c r="B134">
-        <v>10225</v>
+        <v>10380</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>368</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>69</v>
+        <v>362</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>60</v>
@@ -25469,7 +25463,7 @@
         <v>63</v>
       </c>
       <c r="S134" s="1" t="s">
-        <v>257</v>
+        <v>124</v>
       </c>
       <c r="T134" s="1" t="s">
         <v>60</v>
@@ -25591,13 +25585,13 @@
         <v>369</v>
       </c>
       <c r="B135">
-        <v>10380</v>
+        <v>10270</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>370</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>364</v>
+        <v>324</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>60</v>
@@ -25642,7 +25636,7 @@
         <v>63</v>
       </c>
       <c r="S135" s="1" t="s">
-        <v>126</v>
+        <v>255</v>
       </c>
       <c r="T135" s="1" t="s">
         <v>60</v>
@@ -25690,7 +25684,7 @@
         <v>61</v>
       </c>
       <c r="AI135" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AJ135" s="1" t="s">
         <v>61</v>
@@ -25764,13 +25758,13 @@
         <v>371</v>
       </c>
       <c r="B136">
-        <v>10270</v>
+        <v>10271</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>372</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>60</v>
@@ -25815,7 +25809,7 @@
         <v>63</v>
       </c>
       <c r="S136" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="T136" s="1" t="s">
         <v>60</v>
@@ -25937,13 +25931,13 @@
         <v>373</v>
       </c>
       <c r="B137">
-        <v>10271</v>
+        <v>10381</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>374</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>326</v>
+        <v>362</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>60</v>
@@ -25988,7 +25982,7 @@
         <v>63</v>
       </c>
       <c r="S137" s="1" t="s">
-        <v>257</v>
+        <v>73</v>
       </c>
       <c r="T137" s="1" t="s">
         <v>60</v>
@@ -26036,7 +26030,7 @@
         <v>61</v>
       </c>
       <c r="AI137" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AJ137" s="1" t="s">
         <v>61</v>
@@ -26110,13 +26104,13 @@
         <v>375</v>
       </c>
       <c r="B138">
-        <v>10381</v>
+        <v>10382</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>376</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>60</v>
@@ -26283,13 +26277,13 @@
         <v>377</v>
       </c>
       <c r="B139">
-        <v>10382</v>
+        <v>10272</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>378</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>364</v>
+        <v>324</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>60</v>
@@ -26334,7 +26328,7 @@
         <v>63</v>
       </c>
       <c r="S139" s="1" t="s">
-        <v>73</v>
+        <v>255</v>
       </c>
       <c r="T139" s="1" t="s">
         <v>60</v>
@@ -26382,7 +26376,7 @@
         <v>61</v>
       </c>
       <c r="AI139" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AJ139" s="1" t="s">
         <v>61</v>
@@ -26456,13 +26450,13 @@
         <v>379</v>
       </c>
       <c r="B140">
-        <v>10272</v>
+        <v>10383</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>380</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>326</v>
+        <v>362</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>60</v>
@@ -26507,7 +26501,7 @@
         <v>63</v>
       </c>
       <c r="S140" s="1" t="s">
-        <v>257</v>
+        <v>73</v>
       </c>
       <c r="T140" s="1" t="s">
         <v>60</v>
@@ -26555,7 +26549,7 @@
         <v>61</v>
       </c>
       <c r="AI140" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AJ140" s="1" t="s">
         <v>61</v>
@@ -26629,13 +26623,13 @@
         <v>381</v>
       </c>
       <c r="B141">
-        <v>10383</v>
+        <v>10273</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>382</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>364</v>
+        <v>324</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>60</v>
@@ -26680,7 +26674,7 @@
         <v>63</v>
       </c>
       <c r="S141" s="1" t="s">
-        <v>73</v>
+        <v>304</v>
       </c>
       <c r="T141" s="1" t="s">
         <v>60</v>
@@ -26802,13 +26796,13 @@
         <v>383</v>
       </c>
       <c r="B142">
-        <v>10273</v>
+        <v>10384</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>384</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>326</v>
+        <v>362</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>60</v>
@@ -26853,7 +26847,7 @@
         <v>63</v>
       </c>
       <c r="S142" s="1" t="s">
-        <v>306</v>
+        <v>73</v>
       </c>
       <c r="T142" s="1" t="s">
         <v>60</v>
@@ -26975,13 +26969,13 @@
         <v>385</v>
       </c>
       <c r="B143">
-        <v>10384</v>
+        <v>10274</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>386</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>364</v>
+        <v>324</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>60</v>
@@ -27026,7 +27020,7 @@
         <v>63</v>
       </c>
       <c r="S143" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T143" s="1" t="s">
         <v>60</v>
@@ -27148,13 +27142,13 @@
         <v>387</v>
       </c>
       <c r="B144">
-        <v>10274</v>
+        <v>10385</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>388</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>326</v>
+        <v>362</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>60</v>
@@ -27199,7 +27193,7 @@
         <v>63</v>
       </c>
       <c r="S144" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="T144" s="1" t="s">
         <v>60</v>
@@ -27321,13 +27315,13 @@
         <v>389</v>
       </c>
       <c r="B145">
-        <v>10385</v>
+        <v>10275</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>390</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>364</v>
+        <v>324</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>60</v>
@@ -27372,7 +27366,7 @@
         <v>63</v>
       </c>
       <c r="S145" s="1" t="s">
-        <v>79</v>
+        <v>333</v>
       </c>
       <c r="T145" s="1" t="s">
         <v>60</v>
@@ -27494,13 +27488,13 @@
         <v>391</v>
       </c>
       <c r="B146">
-        <v>10275</v>
+        <v>10386</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>392</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>326</v>
+        <v>362</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>60</v>
@@ -27545,7 +27539,7 @@
         <v>63</v>
       </c>
       <c r="S146" s="1" t="s">
-        <v>335</v>
+        <v>73</v>
       </c>
       <c r="T146" s="1" t="s">
         <v>60</v>
@@ -27667,13 +27661,13 @@
         <v>393</v>
       </c>
       <c r="B147">
-        <v>10386</v>
+        <v>10276</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>394</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>364</v>
+        <v>324</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>60</v>
@@ -27718,7 +27712,7 @@
         <v>63</v>
       </c>
       <c r="S147" s="1" t="s">
-        <v>73</v>
+        <v>395</v>
       </c>
       <c r="T147" s="1" t="s">
         <v>60</v>
@@ -27837,16 +27831,16 @@
     </row>
     <row r="148" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B148">
-        <v>10276</v>
+        <v>10387</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>326</v>
+        <v>362</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>60</v>
@@ -27891,7 +27885,7 @@
         <v>63</v>
       </c>
       <c r="S148" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="T148" s="1" t="s">
         <v>60</v>
@@ -28010,16 +28004,16 @@
     </row>
     <row r="149" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B149">
-        <v>10387</v>
+        <v>10277</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>364</v>
+        <v>324</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>60</v>
@@ -28064,7 +28058,7 @@
         <v>63</v>
       </c>
       <c r="S149" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="T149" s="1" t="s">
         <v>60</v>
@@ -28183,16 +28177,16 @@
     </row>
     <row r="150" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B150">
-        <v>10277</v>
+        <v>10388</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>326</v>
+        <v>362</v>
       </c>
       <c r="E150" s="1" t="s">
         <v>60</v>
@@ -28237,7 +28231,7 @@
         <v>63</v>
       </c>
       <c r="S150" s="1" t="s">
-        <v>403</v>
+        <v>134</v>
       </c>
       <c r="T150" s="1" t="s">
         <v>60</v>
@@ -28359,13 +28353,13 @@
         <v>404</v>
       </c>
       <c r="B151">
-        <v>10388</v>
+        <v>10278</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>405</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>364</v>
+        <v>324</v>
       </c>
       <c r="E151" s="1" t="s">
         <v>60</v>
@@ -28410,7 +28404,7 @@
         <v>63</v>
       </c>
       <c r="S151" s="1" t="s">
-        <v>136</v>
+        <v>304</v>
       </c>
       <c r="T151" s="1" t="s">
         <v>60</v>
@@ -28452,13 +28446,13 @@
         <v>61</v>
       </c>
       <c r="AG151" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AH151" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AI151" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AJ151" s="1" t="s">
         <v>61</v>
@@ -28532,13 +28526,13 @@
         <v>406</v>
       </c>
       <c r="B152">
-        <v>10278</v>
+        <v>10006</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>407</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>326</v>
+        <v>72</v>
       </c>
       <c r="E152" s="1" t="s">
         <v>60</v>
@@ -28583,7 +28577,7 @@
         <v>63</v>
       </c>
       <c r="S152" s="1" t="s">
-        <v>306</v>
+        <v>144</v>
       </c>
       <c r="T152" s="1" t="s">
         <v>60</v>
@@ -28625,37 +28619,37 @@
         <v>61</v>
       </c>
       <c r="AG152" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH152" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI152" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ152" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK152" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL152" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM152" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN152" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO152" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP152" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ152" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="AH152" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI152" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AJ152" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AK152" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL152" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AM152" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AN152" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AO152" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AP152" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AQ152" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="AR152" s="1" t="s">
         <v>61</v>
@@ -28705,13 +28699,13 @@
         <v>408</v>
       </c>
       <c r="B153">
-        <v>10006</v>
+        <v>10029</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>409</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>72</v>
+        <v>263</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>60</v>
@@ -28756,7 +28750,7 @@
         <v>63</v>
       </c>
       <c r="S153" s="1" t="s">
-        <v>146</v>
+        <v>410</v>
       </c>
       <c r="T153" s="1" t="s">
         <v>60</v>
@@ -28828,7 +28822,7 @@
         <v>61</v>
       </c>
       <c r="AQ153" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AR153" s="1" t="s">
         <v>61</v>
@@ -28875,16 +28869,16 @@
     </row>
     <row r="154" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B154">
-        <v>10029</v>
+        <v>10396</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>411</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>265</v>
+        <v>362</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>60</v>
@@ -28929,7 +28923,7 @@
         <v>63</v>
       </c>
       <c r="S154" s="1" t="s">
-        <v>412</v>
+        <v>124</v>
       </c>
       <c r="T154" s="1" t="s">
         <v>60</v>
@@ -29048,16 +29042,16 @@
     </row>
     <row r="155" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B155">
-        <v>10396</v>
+        <v>10337</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>413</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>364</v>
+        <v>414</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>60</v>
@@ -29102,7 +29096,7 @@
         <v>63</v>
       </c>
       <c r="S155" s="1" t="s">
-        <v>126</v>
+        <v>76</v>
       </c>
       <c r="T155" s="1" t="s">
         <v>60</v>
@@ -29221,16 +29215,16 @@
     </row>
     <row r="156" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B156">
-        <v>10337</v>
+        <v>10226</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>416</v>
+        <v>69</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>60</v>
@@ -29275,7 +29269,7 @@
         <v>63</v>
       </c>
       <c r="S156" s="1" t="s">
-        <v>79</v>
+        <v>255</v>
       </c>
       <c r="T156" s="1" t="s">
         <v>60</v>
@@ -29397,13 +29391,13 @@
         <v>417</v>
       </c>
       <c r="B157">
-        <v>10226</v>
+        <v>10030</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>418</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>69</v>
+        <v>263</v>
       </c>
       <c r="E157" s="1" t="s">
         <v>60</v>
@@ -29448,7 +29442,7 @@
         <v>63</v>
       </c>
       <c r="S157" s="1" t="s">
-        <v>257</v>
+        <v>410</v>
       </c>
       <c r="T157" s="1" t="s">
         <v>60</v>
@@ -29570,13 +29564,13 @@
         <v>419</v>
       </c>
       <c r="B158">
-        <v>10030</v>
+        <v>10389</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>420</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>265</v>
+        <v>421</v>
       </c>
       <c r="E158" s="1" t="s">
         <v>60</v>
@@ -29621,7 +29615,7 @@
         <v>63</v>
       </c>
       <c r="S158" s="1" t="s">
-        <v>412</v>
+        <v>91</v>
       </c>
       <c r="T158" s="1" t="s">
         <v>60</v>
@@ -29740,16 +29734,16 @@
     </row>
     <row r="159" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B159">
-        <v>10389</v>
+        <v>10031</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>423</v>
+        <v>263</v>
       </c>
       <c r="E159" s="1" t="s">
         <v>60</v>
@@ -29794,7 +29788,7 @@
         <v>63</v>
       </c>
       <c r="S159" s="1" t="s">
-        <v>93</v>
+        <v>410</v>
       </c>
       <c r="T159" s="1" t="s">
         <v>60</v>
@@ -29916,13 +29910,13 @@
         <v>424</v>
       </c>
       <c r="B160">
-        <v>10031</v>
+        <v>10390</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>425</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>265</v>
+        <v>421</v>
       </c>
       <c r="E160" s="1" t="s">
         <v>60</v>
@@ -29967,7 +29961,7 @@
         <v>63</v>
       </c>
       <c r="S160" s="1" t="s">
-        <v>412</v>
+        <v>91</v>
       </c>
       <c r="T160" s="1" t="s">
         <v>60</v>
@@ -30089,13 +30083,13 @@
         <v>426</v>
       </c>
       <c r="B161">
-        <v>10390</v>
+        <v>10391</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>427</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E161" s="1" t="s">
         <v>60</v>
@@ -30140,7 +30134,7 @@
         <v>63</v>
       </c>
       <c r="S161" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="T161" s="1" t="s">
         <v>60</v>
@@ -30262,13 +30256,13 @@
         <v>428</v>
       </c>
       <c r="B162">
-        <v>10391</v>
+        <v>10032</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>429</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>423</v>
+        <v>263</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>60</v>
@@ -30313,7 +30307,7 @@
         <v>63</v>
       </c>
       <c r="S162" s="1" t="s">
-        <v>93</v>
+        <v>410</v>
       </c>
       <c r="T162" s="1" t="s">
         <v>60</v>
@@ -30435,13 +30429,13 @@
         <v>430</v>
       </c>
       <c r="B163">
-        <v>10032</v>
+        <v>10392</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>431</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>265</v>
+        <v>421</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>60</v>
@@ -30486,7 +30480,7 @@
         <v>63</v>
       </c>
       <c r="S163" s="1" t="s">
-        <v>412</v>
+        <v>91</v>
       </c>
       <c r="T163" s="1" t="s">
         <v>60</v>
@@ -30608,13 +30602,13 @@
         <v>432</v>
       </c>
       <c r="B164">
-        <v>10392</v>
+        <v>10393</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>433</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>60</v>
@@ -30659,7 +30653,7 @@
         <v>63</v>
       </c>
       <c r="S164" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="T164" s="1" t="s">
         <v>60</v>
@@ -30781,13 +30775,13 @@
         <v>434</v>
       </c>
       <c r="B165">
-        <v>10393</v>
+        <v>10394</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>435</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E165" s="1" t="s">
         <v>60</v>
@@ -30832,7 +30826,7 @@
         <v>63</v>
       </c>
       <c r="S165" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="T165" s="1" t="s">
         <v>60</v>
@@ -30943,7 +30937,7 @@
         <v>61</v>
       </c>
       <c r="BD165" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="BE165" s="1" t="s">
         <v>61</v>
@@ -30954,13 +30948,13 @@
         <v>436</v>
       </c>
       <c r="B166">
-        <v>10394</v>
+        <v>10395</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>437</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E166" s="1" t="s">
         <v>60</v>
@@ -31005,7 +30999,7 @@
         <v>63</v>
       </c>
       <c r="S166" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="T166" s="1" t="s">
         <v>60</v>
@@ -31116,7 +31110,7 @@
         <v>61</v>
       </c>
       <c r="BD166" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="BE166" s="1" t="s">
         <v>61</v>
@@ -31127,13 +31121,13 @@
         <v>438</v>
       </c>
       <c r="B167">
-        <v>10395</v>
+        <v>10397</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>439</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>423</v>
+        <v>440</v>
       </c>
       <c r="E167" s="1" t="s">
         <v>60</v>
@@ -31178,7 +31172,7 @@
         <v>63</v>
       </c>
       <c r="S167" s="1" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="T167" s="1" t="s">
         <v>60</v>
@@ -31297,16 +31291,16 @@
     </row>
     <row r="168" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B168">
+        <v>10398</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D168" s="1" t="s">
         <v>440</v>
-      </c>
-      <c r="B168">
-        <v>10397</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>442</v>
       </c>
       <c r="E168" s="1" t="s">
         <v>60</v>
@@ -31351,7 +31345,7 @@
         <v>63</v>
       </c>
       <c r="S168" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="T168" s="1" t="s">
         <v>60</v>
@@ -31473,13 +31467,13 @@
         <v>443</v>
       </c>
       <c r="B169">
-        <v>10398</v>
+        <v>10010</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>444</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>442</v>
+        <v>263</v>
       </c>
       <c r="E169" s="1" t="s">
         <v>60</v>
@@ -31524,7 +31518,7 @@
         <v>63</v>
       </c>
       <c r="S169" s="1" t="s">
-        <v>79</v>
+        <v>410</v>
       </c>
       <c r="T169" s="1" t="s">
         <v>60</v>
@@ -31646,13 +31640,13 @@
         <v>445</v>
       </c>
       <c r="B170">
-        <v>10010</v>
+        <v>10399</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>446</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>265</v>
+        <v>440</v>
       </c>
       <c r="E170" s="1" t="s">
         <v>60</v>
@@ -31697,7 +31691,7 @@
         <v>63</v>
       </c>
       <c r="S170" s="1" t="s">
-        <v>412</v>
+        <v>76</v>
       </c>
       <c r="T170" s="1" t="s">
         <v>60</v>
@@ -31819,13 +31813,13 @@
         <v>447</v>
       </c>
       <c r="B171">
-        <v>10399</v>
+        <v>10338</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>448</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>442</v>
+        <v>414</v>
       </c>
       <c r="E171" s="1" t="s">
         <v>60</v>
@@ -31870,7 +31864,7 @@
         <v>63</v>
       </c>
       <c r="S171" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="T171" s="1" t="s">
         <v>60</v>
@@ -31992,13 +31986,13 @@
         <v>449</v>
       </c>
       <c r="B172">
-        <v>10338</v>
+        <v>10231</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>450</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>416</v>
+        <v>97</v>
       </c>
       <c r="E172" s="1" t="s">
         <v>60</v>
@@ -32043,7 +32037,7 @@
         <v>63</v>
       </c>
       <c r="S172" s="1" t="s">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="T172" s="1" t="s">
         <v>60</v>
@@ -32165,13 +32159,13 @@
         <v>451</v>
       </c>
       <c r="B173">
-        <v>10231</v>
+        <v>10012</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>452</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>99</v>
+        <v>263</v>
       </c>
       <c r="E173" s="1" t="s">
         <v>60</v>
@@ -32216,7 +32210,7 @@
         <v>63</v>
       </c>
       <c r="S173" s="1" t="s">
-        <v>136</v>
+        <v>410</v>
       </c>
       <c r="T173" s="1" t="s">
         <v>60</v>
@@ -32338,13 +32332,13 @@
         <v>453</v>
       </c>
       <c r="B174">
-        <v>10012</v>
+        <v>10400</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>454</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>265</v>
+        <v>440</v>
       </c>
       <c r="E174" s="1" t="s">
         <v>60</v>
@@ -32389,7 +32383,7 @@
         <v>63</v>
       </c>
       <c r="S174" s="1" t="s">
-        <v>412</v>
+        <v>76</v>
       </c>
       <c r="T174" s="1" t="s">
         <v>60</v>
@@ -32511,13 +32505,13 @@
         <v>455</v>
       </c>
       <c r="B175">
-        <v>10400</v>
+        <v>10120</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>456</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>442</v>
+        <v>72</v>
       </c>
       <c r="E175" s="1" t="s">
         <v>60</v>
@@ -32562,7 +32556,7 @@
         <v>63</v>
       </c>
       <c r="S175" s="1" t="s">
-        <v>79</v>
+        <v>255</v>
       </c>
       <c r="T175" s="1" t="s">
         <v>60</v>
@@ -32637,7 +32631,7 @@
         <v>61</v>
       </c>
       <c r="AR175" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AS175" s="1" t="s">
         <v>61</v>
@@ -32684,13 +32678,13 @@
         <v>457</v>
       </c>
       <c r="B176">
-        <v>10120</v>
+        <v>10011</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>458</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>72</v>
+        <v>263</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>60</v>
@@ -32735,7 +32729,7 @@
         <v>63</v>
       </c>
       <c r="S176" s="1" t="s">
-        <v>257</v>
+        <v>410</v>
       </c>
       <c r="T176" s="1" t="s">
         <v>60</v>
@@ -32810,7 +32804,7 @@
         <v>61</v>
       </c>
       <c r="AR176" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AS176" s="1" t="s">
         <v>61</v>
@@ -32857,13 +32851,13 @@
         <v>459</v>
       </c>
       <c r="B177">
-        <v>10011</v>
+        <v>10401</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>460</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>265</v>
+        <v>440</v>
       </c>
       <c r="E177" s="1" t="s">
         <v>60</v>
@@ -32908,7 +32902,7 @@
         <v>63</v>
       </c>
       <c r="S177" s="1" t="s">
-        <v>412</v>
+        <v>76</v>
       </c>
       <c r="T177" s="1" t="s">
         <v>60</v>
@@ -33030,13 +33024,13 @@
         <v>461</v>
       </c>
       <c r="B178">
-        <v>10401</v>
+        <v>10013</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>462</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>442</v>
+        <v>263</v>
       </c>
       <c r="E178" s="1" t="s">
         <v>60</v>
@@ -33081,7 +33075,7 @@
         <v>63</v>
       </c>
       <c r="S178" s="1" t="s">
-        <v>79</v>
+        <v>410</v>
       </c>
       <c r="T178" s="1" t="s">
         <v>60</v>
@@ -33203,13 +33197,13 @@
         <v>463</v>
       </c>
       <c r="B179">
-        <v>10013</v>
+        <v>10402</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>464</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>265</v>
+        <v>440</v>
       </c>
       <c r="E179" s="1" t="s">
         <v>60</v>
@@ -33254,7 +33248,7 @@
         <v>63</v>
       </c>
       <c r="S179" s="1" t="s">
-        <v>412</v>
+        <v>76</v>
       </c>
       <c r="T179" s="1" t="s">
         <v>60</v>
@@ -33376,13 +33370,13 @@
         <v>465</v>
       </c>
       <c r="B180">
-        <v>10402</v>
+        <v>10403</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>466</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E180" s="1" t="s">
         <v>60</v>
@@ -33427,7 +33421,7 @@
         <v>63</v>
       </c>
       <c r="S180" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="T180" s="1" t="s">
         <v>60</v>
@@ -33549,13 +33543,13 @@
         <v>467</v>
       </c>
       <c r="B181">
-        <v>10403</v>
+        <v>10014</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>468</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>442</v>
+        <v>263</v>
       </c>
       <c r="E181" s="1" t="s">
         <v>60</v>
@@ -33600,7 +33594,7 @@
         <v>63</v>
       </c>
       <c r="S181" s="1" t="s">
-        <v>79</v>
+        <v>410</v>
       </c>
       <c r="T181" s="1" t="s">
         <v>60</v>
@@ -33722,13 +33716,13 @@
         <v>469</v>
       </c>
       <c r="B182">
-        <v>10014</v>
+        <v>10404</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>470</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>265</v>
+        <v>471</v>
       </c>
       <c r="E182" s="1" t="s">
         <v>60</v>
@@ -33773,7 +33767,7 @@
         <v>63</v>
       </c>
       <c r="S182" s="1" t="s">
-        <v>412</v>
+        <v>73</v>
       </c>
       <c r="T182" s="1" t="s">
         <v>60</v>
@@ -33892,16 +33886,16 @@
     </row>
     <row r="183" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B183">
+        <v>10405</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="D183" s="1" t="s">
         <v>471</v>
-      </c>
-      <c r="B183">
-        <v>10404</v>
-      </c>
-      <c r="C183" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="D183" s="1" t="s">
-        <v>473</v>
       </c>
       <c r="E183" s="1" t="s">
         <v>60</v>
@@ -34068,13 +34062,13 @@
         <v>474</v>
       </c>
       <c r="B184">
-        <v>10405</v>
+        <v>10023</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>475</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>473</v>
+        <v>263</v>
       </c>
       <c r="E184" s="1" t="s">
         <v>60</v>
@@ -34119,7 +34113,7 @@
         <v>63</v>
       </c>
       <c r="S184" s="1" t="s">
-        <v>73</v>
+        <v>255</v>
       </c>
       <c r="T184" s="1" t="s">
         <v>60</v>
@@ -34241,13 +34235,13 @@
         <v>476</v>
       </c>
       <c r="B185">
-        <v>10023</v>
+        <v>10406</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>477</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>265</v>
+        <v>471</v>
       </c>
       <c r="E185" s="1" t="s">
         <v>60</v>
@@ -34292,7 +34286,7 @@
         <v>63</v>
       </c>
       <c r="S185" s="1" t="s">
-        <v>257</v>
+        <v>73</v>
       </c>
       <c r="T185" s="1" t="s">
         <v>60</v>
@@ -34414,13 +34408,13 @@
         <v>478</v>
       </c>
       <c r="B186">
-        <v>10406</v>
+        <v>10159</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>479</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>473</v>
+        <v>72</v>
       </c>
       <c r="E186" s="1" t="s">
         <v>60</v>
@@ -34465,7 +34459,7 @@
         <v>63</v>
       </c>
       <c r="S186" s="1" t="s">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="T186" s="1" t="s">
         <v>60</v>
@@ -34587,7 +34581,7 @@
         <v>480</v>
       </c>
       <c r="B187">
-        <v>10159</v>
+        <v>10122</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>481</v>
@@ -34638,7 +34632,7 @@
         <v>63</v>
       </c>
       <c r="S187" s="1" t="s">
-        <v>126</v>
+        <v>410</v>
       </c>
       <c r="T187" s="1" t="s">
         <v>60</v>
@@ -34760,13 +34754,13 @@
         <v>482</v>
       </c>
       <c r="B188">
-        <v>10122</v>
+        <v>10024</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>483</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>72</v>
+        <v>263</v>
       </c>
       <c r="E188" s="1" t="s">
         <v>60</v>
@@ -34811,7 +34805,7 @@
         <v>63</v>
       </c>
       <c r="S188" s="1" t="s">
-        <v>412</v>
+        <v>255</v>
       </c>
       <c r="T188" s="1" t="s">
         <v>60</v>
@@ -34933,13 +34927,13 @@
         <v>484</v>
       </c>
       <c r="B189">
-        <v>10024</v>
+        <v>10407</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>485</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>265</v>
+        <v>471</v>
       </c>
       <c r="E189" s="1" t="s">
         <v>60</v>
@@ -34984,7 +34978,7 @@
         <v>63</v>
       </c>
       <c r="S189" s="1" t="s">
-        <v>257</v>
+        <v>73</v>
       </c>
       <c r="T189" s="1" t="s">
         <v>60</v>
@@ -35106,13 +35100,13 @@
         <v>486</v>
       </c>
       <c r="B190">
-        <v>10407</v>
+        <v>10161</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>487</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>473</v>
+        <v>72</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>60</v>
@@ -35157,7 +35151,7 @@
         <v>63</v>
       </c>
       <c r="S190" s="1" t="s">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="T190" s="1" t="s">
         <v>60</v>
@@ -35279,7 +35273,7 @@
         <v>488</v>
       </c>
       <c r="B191">
-        <v>10161</v>
+        <v>10123</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>489</v>
@@ -35330,7 +35324,7 @@
         <v>63</v>
       </c>
       <c r="S191" s="1" t="s">
-        <v>126</v>
+        <v>410</v>
       </c>
       <c r="T191" s="1" t="s">
         <v>60</v>
@@ -35452,13 +35446,13 @@
         <v>490</v>
       </c>
       <c r="B192">
-        <v>10123</v>
+        <v>10025</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>491</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>72</v>
+        <v>263</v>
       </c>
       <c r="E192" s="1" t="s">
         <v>60</v>
@@ -35503,7 +35497,7 @@
         <v>63</v>
       </c>
       <c r="S192" s="1" t="s">
-        <v>412</v>
+        <v>255</v>
       </c>
       <c r="T192" s="1" t="s">
         <v>60</v>
@@ -35625,13 +35619,13 @@
         <v>492</v>
       </c>
       <c r="B193">
-        <v>10025</v>
+        <v>10408</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>493</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>265</v>
+        <v>471</v>
       </c>
       <c r="E193" s="1" t="s">
         <v>60</v>
@@ -35676,7 +35670,7 @@
         <v>63</v>
       </c>
       <c r="S193" s="1" t="s">
-        <v>257</v>
+        <v>73</v>
       </c>
       <c r="T193" s="1" t="s">
         <v>60</v>
@@ -35798,13 +35792,13 @@
         <v>494</v>
       </c>
       <c r="B194">
-        <v>10408</v>
+        <v>10160</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>495</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>473</v>
+        <v>72</v>
       </c>
       <c r="E194" s="1" t="s">
         <v>60</v>
@@ -35849,7 +35843,7 @@
         <v>63</v>
       </c>
       <c r="S194" s="1" t="s">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="T194" s="1" t="s">
         <v>60</v>
@@ -35971,7 +35965,7 @@
         <v>496</v>
       </c>
       <c r="B195">
-        <v>10160</v>
+        <v>10124</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>497</v>
@@ -36022,7 +36016,7 @@
         <v>63</v>
       </c>
       <c r="S195" s="1" t="s">
-        <v>126</v>
+        <v>255</v>
       </c>
       <c r="T195" s="1" t="s">
         <v>60</v>
@@ -36144,13 +36138,13 @@
         <v>498</v>
       </c>
       <c r="B196">
-        <v>10124</v>
+        <v>10026</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>499</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>72</v>
+        <v>263</v>
       </c>
       <c r="E196" s="1" t="s">
         <v>60</v>
@@ -36195,7 +36189,7 @@
         <v>63</v>
       </c>
       <c r="S196" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="T196" s="1" t="s">
         <v>60</v>
@@ -36317,13 +36311,13 @@
         <v>500</v>
       </c>
       <c r="B197">
-        <v>10026</v>
+        <v>10409</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>501</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>265</v>
+        <v>502</v>
       </c>
       <c r="E197" s="1" t="s">
         <v>60</v>
@@ -36368,7 +36362,7 @@
         <v>63</v>
       </c>
       <c r="S197" s="1" t="s">
-        <v>257</v>
+        <v>73</v>
       </c>
       <c r="T197" s="1" t="s">
         <v>60</v>
@@ -36487,16 +36481,16 @@
     </row>
     <row r="198" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B198">
-        <v>10409</v>
+        <v>10127</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>504</v>
+        <v>72</v>
       </c>
       <c r="E198" s="1" t="s">
         <v>60</v>
@@ -36541,7 +36535,7 @@
         <v>63</v>
       </c>
       <c r="S198" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T198" s="1" t="s">
         <v>60</v>
@@ -36663,13 +36657,13 @@
         <v>505</v>
       </c>
       <c r="B199">
-        <v>10127</v>
+        <v>10339</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>506</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>72</v>
+        <v>414</v>
       </c>
       <c r="E199" s="1" t="s">
         <v>60</v>
@@ -36714,7 +36708,7 @@
         <v>63</v>
       </c>
       <c r="S199" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="T199" s="1" t="s">
         <v>60</v>
@@ -36836,13 +36830,13 @@
         <v>507</v>
       </c>
       <c r="B200">
-        <v>10339</v>
+        <v>10227</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>508</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>416</v>
+        <v>97</v>
       </c>
       <c r="E200" s="1" t="s">
         <v>60</v>
@@ -36887,7 +36881,7 @@
         <v>63</v>
       </c>
       <c r="S200" s="1" t="s">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="T200" s="1" t="s">
         <v>60</v>
@@ -37009,13 +37003,13 @@
         <v>509</v>
       </c>
       <c r="B201">
-        <v>10227</v>
+        <v>10027</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>510</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>99</v>
+        <v>263</v>
       </c>
       <c r="E201" s="1" t="s">
         <v>60</v>
@@ -37060,7 +37054,7 @@
         <v>63</v>
       </c>
       <c r="S201" s="1" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="T201" s="1" t="s">
         <v>60</v>
@@ -37182,13 +37176,13 @@
         <v>511</v>
       </c>
       <c r="B202">
-        <v>10027</v>
+        <v>10410</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>512</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>265</v>
+        <v>502</v>
       </c>
       <c r="E202" s="1" t="s">
         <v>60</v>
@@ -37233,7 +37227,7 @@
         <v>63</v>
       </c>
       <c r="S202" s="1" t="s">
-        <v>257</v>
+        <v>73</v>
       </c>
       <c r="T202" s="1" t="s">
         <v>60</v>
@@ -37355,13 +37349,13 @@
         <v>513</v>
       </c>
       <c r="B203">
-        <v>10410</v>
+        <v>10125</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>514</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>504</v>
+        <v>72</v>
       </c>
       <c r="E203" s="1" t="s">
         <v>60</v>
@@ -37406,7 +37400,7 @@
         <v>63</v>
       </c>
       <c r="S203" s="1" t="s">
-        <v>73</v>
+        <v>515</v>
       </c>
       <c r="T203" s="1" t="s">
         <v>60</v>
@@ -37525,16 +37519,16 @@
     </row>
     <row r="204" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B204">
-        <v>10125</v>
+        <v>10016</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>72</v>
+        <v>263</v>
       </c>
       <c r="E204" s="1" t="s">
         <v>60</v>
@@ -37579,7 +37573,7 @@
         <v>63</v>
       </c>
       <c r="S204" s="1" t="s">
-        <v>517</v>
+        <v>255</v>
       </c>
       <c r="T204" s="1" t="s">
         <v>60</v>
@@ -37701,13 +37695,13 @@
         <v>518</v>
       </c>
       <c r="B205">
-        <v>10016</v>
+        <v>10411</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>519</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>265</v>
+        <v>502</v>
       </c>
       <c r="E205" s="1" t="s">
         <v>60</v>
@@ -37752,7 +37746,7 @@
         <v>63</v>
       </c>
       <c r="S205" s="1" t="s">
-        <v>257</v>
+        <v>73</v>
       </c>
       <c r="T205" s="1" t="s">
         <v>60</v>
@@ -37874,13 +37868,13 @@
         <v>520</v>
       </c>
       <c r="B206">
-        <v>10411</v>
+        <v>10126</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>521</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>504</v>
+        <v>72</v>
       </c>
       <c r="E206" s="1" t="s">
         <v>60</v>
@@ -37925,7 +37919,7 @@
         <v>63</v>
       </c>
       <c r="S206" s="1" t="s">
-        <v>73</v>
+        <v>410</v>
       </c>
       <c r="T206" s="1" t="s">
         <v>60</v>
@@ -38047,13 +38041,13 @@
         <v>522</v>
       </c>
       <c r="B207">
-        <v>10126</v>
+        <v>10017</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>523</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>72</v>
+        <v>263</v>
       </c>
       <c r="E207" s="1" t="s">
         <v>60</v>
@@ -38098,7 +38092,7 @@
         <v>63</v>
       </c>
       <c r="S207" s="1" t="s">
-        <v>412</v>
+        <v>255</v>
       </c>
       <c r="T207" s="1" t="s">
         <v>60</v>
@@ -38220,13 +38214,13 @@
         <v>524</v>
       </c>
       <c r="B208">
-        <v>10017</v>
+        <v>10412</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>525</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>265</v>
+        <v>502</v>
       </c>
       <c r="E208" s="1" t="s">
         <v>60</v>
@@ -38271,7 +38265,7 @@
         <v>63</v>
       </c>
       <c r="S208" s="1" t="s">
-        <v>257</v>
+        <v>73</v>
       </c>
       <c r="T208" s="1" t="s">
         <v>60</v>
@@ -38393,13 +38387,13 @@
         <v>526</v>
       </c>
       <c r="B209">
-        <v>10412</v>
+        <v>10134</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>527</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>504</v>
+        <v>72</v>
       </c>
       <c r="E209" s="1" t="s">
         <v>60</v>
@@ -38444,7 +38438,7 @@
         <v>63</v>
       </c>
       <c r="S209" s="1" t="s">
-        <v>73</v>
+        <v>289</v>
       </c>
       <c r="T209" s="1" t="s">
         <v>60</v>
@@ -38566,7 +38560,7 @@
         <v>528</v>
       </c>
       <c r="B210">
-        <v>10134</v>
+        <v>10136</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>529</v>
@@ -38617,7 +38611,7 @@
         <v>63</v>
       </c>
       <c r="S210" s="1" t="s">
-        <v>291</v>
+        <v>515</v>
       </c>
       <c r="T210" s="1" t="s">
         <v>60</v>
@@ -38739,13 +38733,13 @@
         <v>530</v>
       </c>
       <c r="B211">
-        <v>10136</v>
+        <v>10018</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>531</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>72</v>
+        <v>263</v>
       </c>
       <c r="E211" s="1" t="s">
         <v>60</v>
@@ -38790,7 +38784,7 @@
         <v>63</v>
       </c>
       <c r="S211" s="1" t="s">
-        <v>517</v>
+        <v>255</v>
       </c>
       <c r="T211" s="1" t="s">
         <v>60</v>
@@ -38912,13 +38906,13 @@
         <v>532</v>
       </c>
       <c r="B212">
-        <v>10018</v>
+        <v>10413</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>533</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>265</v>
+        <v>534</v>
       </c>
       <c r="E212" s="1" t="s">
         <v>60</v>
@@ -38963,7 +38957,7 @@
         <v>63</v>
       </c>
       <c r="S212" s="1" t="s">
-        <v>257</v>
+        <v>91</v>
       </c>
       <c r="T212" s="1" t="s">
         <v>60</v>
@@ -39082,16 +39076,16 @@
     </row>
     <row r="213" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B213">
-        <v>10413</v>
+        <v>10019</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>536</v>
+        <v>263</v>
       </c>
       <c r="E213" s="1" t="s">
         <v>60</v>
@@ -39136,7 +39130,7 @@
         <v>63</v>
       </c>
       <c r="S213" s="1" t="s">
-        <v>93</v>
+        <v>255</v>
       </c>
       <c r="T213" s="1" t="s">
         <v>60</v>
@@ -39258,13 +39252,13 @@
         <v>537</v>
       </c>
       <c r="B214">
-        <v>10019</v>
+        <v>10414</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>538</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>265</v>
+        <v>534</v>
       </c>
       <c r="E214" s="1" t="s">
         <v>60</v>
@@ -39309,7 +39303,7 @@
         <v>63</v>
       </c>
       <c r="S214" s="1" t="s">
-        <v>257</v>
+        <v>91</v>
       </c>
       <c r="T214" s="1" t="s">
         <v>60</v>
@@ -39431,13 +39425,13 @@
         <v>539</v>
       </c>
       <c r="B215">
-        <v>10414</v>
+        <v>10135</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>540</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>536</v>
+        <v>72</v>
       </c>
       <c r="E215" s="1" t="s">
         <v>60</v>
@@ -39482,7 +39476,7 @@
         <v>63</v>
       </c>
       <c r="S215" s="1" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="T215" s="1" t="s">
         <v>60</v>
@@ -39604,13 +39598,13 @@
         <v>541</v>
       </c>
       <c r="B216">
-        <v>10135</v>
+        <v>10415</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>542</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>72</v>
+        <v>534</v>
       </c>
       <c r="E216" s="1" t="s">
         <v>60</v>
@@ -39655,7 +39649,7 @@
         <v>63</v>
       </c>
       <c r="S216" s="1" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="T216" s="1" t="s">
         <v>60</v>
@@ -39777,13 +39771,13 @@
         <v>543</v>
       </c>
       <c r="B217">
-        <v>10415</v>
+        <v>10020</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>544</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>536</v>
+        <v>263</v>
       </c>
       <c r="E217" s="1" t="s">
         <v>60</v>
@@ -39828,7 +39822,7 @@
         <v>63</v>
       </c>
       <c r="S217" s="1" t="s">
-        <v>93</v>
+        <v>255</v>
       </c>
       <c r="T217" s="1" t="s">
         <v>60</v>
@@ -39950,13 +39944,13 @@
         <v>545</v>
       </c>
       <c r="B218">
-        <v>10020</v>
+        <v>10137</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>546</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>265</v>
+        <v>72</v>
       </c>
       <c r="E218" s="1" t="s">
         <v>60</v>
@@ -40001,7 +39995,7 @@
         <v>63</v>
       </c>
       <c r="S218" s="1" t="s">
-        <v>257</v>
+        <v>91</v>
       </c>
       <c r="T218" s="1" t="s">
         <v>60</v>
@@ -40123,13 +40117,13 @@
         <v>547</v>
       </c>
       <c r="B219">
-        <v>10137</v>
+        <v>10416</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>548</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>72</v>
+        <v>534</v>
       </c>
       <c r="E219" s="1" t="s">
         <v>60</v>
@@ -40174,7 +40168,7 @@
         <v>63</v>
       </c>
       <c r="S219" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="T219" s="1" t="s">
         <v>60</v>
@@ -40296,13 +40290,13 @@
         <v>549</v>
       </c>
       <c r="B220">
-        <v>10416</v>
+        <v>10015</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>550</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>536</v>
+        <v>263</v>
       </c>
       <c r="E220" s="1" t="s">
         <v>60</v>
@@ -40347,7 +40341,7 @@
         <v>63</v>
       </c>
       <c r="S220" s="1" t="s">
-        <v>93</v>
+        <v>410</v>
       </c>
       <c r="T220" s="1" t="s">
         <v>60</v>
@@ -40469,13 +40463,13 @@
         <v>551</v>
       </c>
       <c r="B221">
-        <v>10015</v>
+        <v>10142</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>552</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>265</v>
+        <v>72</v>
       </c>
       <c r="E221" s="1" t="s">
         <v>60</v>
@@ -40520,7 +40514,7 @@
         <v>63</v>
       </c>
       <c r="S221" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="T221" s="1" t="s">
         <v>60</v>
@@ -40642,7 +40636,7 @@
         <v>553</v>
       </c>
       <c r="B222">
-        <v>10142</v>
+        <v>10138</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>554</v>
@@ -40693,7 +40687,7 @@
         <v>63</v>
       </c>
       <c r="S222" s="1" t="s">
-        <v>412</v>
+        <v>289</v>
       </c>
       <c r="T222" s="1" t="s">
         <v>60</v>
@@ -40815,13 +40809,13 @@
         <v>555</v>
       </c>
       <c r="B223">
-        <v>10138</v>
+        <v>10417</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>556</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>72</v>
+        <v>534</v>
       </c>
       <c r="E223" s="1" t="s">
         <v>60</v>
@@ -40866,7 +40860,7 @@
         <v>63</v>
       </c>
       <c r="S223" s="1" t="s">
-        <v>291</v>
+        <v>91</v>
       </c>
       <c r="T223" s="1" t="s">
         <v>60</v>
@@ -40988,13 +40982,13 @@
         <v>557</v>
       </c>
       <c r="B224">
-        <v>10417</v>
+        <v>10418</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>558</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>536</v>
+        <v>559</v>
       </c>
       <c r="E224" s="1" t="s">
         <v>60</v>
@@ -41039,7 +41033,7 @@
         <v>63</v>
       </c>
       <c r="S224" s="1" t="s">
-        <v>93</v>
+        <v>289</v>
       </c>
       <c r="T224" s="1" t="s">
         <v>60</v>
@@ -41158,16 +41152,16 @@
     </row>
     <row r="225" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B225">
-        <v>10418</v>
+        <v>10139</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>561</v>
+        <v>72</v>
       </c>
       <c r="E225" s="1" t="s">
         <v>60</v>
@@ -41212,7 +41206,7 @@
         <v>63</v>
       </c>
       <c r="S225" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="T225" s="1" t="s">
         <v>60</v>
@@ -41334,13 +41328,13 @@
         <v>562</v>
       </c>
       <c r="B226">
-        <v>10139</v>
+        <v>10419</v>
       </c>
       <c r="C226" s="1" t="s">
         <v>563</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>72</v>
+        <v>559</v>
       </c>
       <c r="E226" s="1" t="s">
         <v>60</v>
@@ -41385,7 +41379,7 @@
         <v>63</v>
       </c>
       <c r="S226" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="T226" s="1" t="s">
         <v>60</v>
@@ -41507,13 +41501,13 @@
         <v>564</v>
       </c>
       <c r="B227">
-        <v>10419</v>
+        <v>10140</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>565</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>561</v>
+        <v>72</v>
       </c>
       <c r="E227" s="1" t="s">
         <v>60</v>
@@ -41558,7 +41552,7 @@
         <v>63</v>
       </c>
       <c r="S227" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="T227" s="1" t="s">
         <v>60</v>
@@ -41680,13 +41674,13 @@
         <v>566</v>
       </c>
       <c r="B228">
-        <v>10140</v>
+        <v>10340</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>567</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>72</v>
+        <v>414</v>
       </c>
       <c r="E228" s="1" t="s">
         <v>60</v>
@@ -41731,7 +41725,7 @@
         <v>63</v>
       </c>
       <c r="S228" s="1" t="s">
-        <v>291</v>
+        <v>255</v>
       </c>
       <c r="T228" s="1" t="s">
         <v>60</v>
@@ -41853,13 +41847,13 @@
         <v>568</v>
       </c>
       <c r="B229">
-        <v>10340</v>
+        <v>10228</v>
       </c>
       <c r="C229" s="1" t="s">
         <v>569</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>416</v>
+        <v>97</v>
       </c>
       <c r="E229" s="1" t="s">
         <v>60</v>
@@ -41904,7 +41898,7 @@
         <v>63</v>
       </c>
       <c r="S229" s="1" t="s">
-        <v>257</v>
+        <v>570</v>
       </c>
       <c r="T229" s="1" t="s">
         <v>60</v>
@@ -42023,16 +42017,16 @@
     </row>
     <row r="230" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B230">
-        <v>10228</v>
+        <v>10420</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>99</v>
+        <v>559</v>
       </c>
       <c r="E230" s="1" t="s">
         <v>60</v>
@@ -42077,7 +42071,7 @@
         <v>63</v>
       </c>
       <c r="S230" s="1" t="s">
-        <v>572</v>
+        <v>289</v>
       </c>
       <c r="T230" s="1" t="s">
         <v>60</v>
@@ -42199,13 +42193,13 @@
         <v>573</v>
       </c>
       <c r="B231">
-        <v>10420</v>
+        <v>10147</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>574</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>561</v>
+        <v>72</v>
       </c>
       <c r="E231" s="1" t="s">
         <v>60</v>
@@ -42250,7 +42244,7 @@
         <v>63</v>
       </c>
       <c r="S231" s="1" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="T231" s="1" t="s">
         <v>60</v>
@@ -42372,13 +42366,13 @@
         <v>575</v>
       </c>
       <c r="B232">
-        <v>10147</v>
+        <v>10421</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>576</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>72</v>
+        <v>559</v>
       </c>
       <c r="E232" s="1" t="s">
         <v>60</v>
@@ -42423,7 +42417,7 @@
         <v>63</v>
       </c>
       <c r="S232" s="1" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="T232" s="1" t="s">
         <v>60</v>
@@ -42545,13 +42539,13 @@
         <v>577</v>
       </c>
       <c r="B233">
-        <v>10421</v>
+        <v>10146</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>578</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>561</v>
+        <v>72</v>
       </c>
       <c r="E233" s="1" t="s">
         <v>60</v>
@@ -42596,7 +42590,7 @@
         <v>63</v>
       </c>
       <c r="S233" s="1" t="s">
-        <v>291</v>
+        <v>255</v>
       </c>
       <c r="T233" s="1" t="s">
         <v>60</v>
@@ -42718,13 +42712,13 @@
         <v>579</v>
       </c>
       <c r="B234">
-        <v>10146</v>
+        <v>10422</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>580</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>72</v>
+        <v>559</v>
       </c>
       <c r="E234" s="1" t="s">
         <v>60</v>
@@ -42769,7 +42763,7 @@
         <v>63</v>
       </c>
       <c r="S234" s="1" t="s">
-        <v>257</v>
+        <v>289</v>
       </c>
       <c r="T234" s="1" t="s">
         <v>60</v>
@@ -42891,13 +42885,13 @@
         <v>581</v>
       </c>
       <c r="B235">
-        <v>10422</v>
+        <v>10141</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>582</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>561</v>
+        <v>72</v>
       </c>
       <c r="E235" s="1" t="s">
         <v>60</v>
@@ -42942,7 +42936,7 @@
         <v>63</v>
       </c>
       <c r="S235" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="T235" s="1" t="s">
         <v>60</v>
@@ -43064,13 +43058,13 @@
         <v>583</v>
       </c>
       <c r="B236">
-        <v>10141</v>
+        <v>10423</v>
       </c>
       <c r="C236" s="1" t="s">
         <v>584</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>72</v>
+        <v>585</v>
       </c>
       <c r="E236" s="1" t="s">
         <v>60</v>
@@ -43115,7 +43109,7 @@
         <v>63</v>
       </c>
       <c r="S236" s="1" t="s">
-        <v>291</v>
+        <v>144</v>
       </c>
       <c r="T236" s="1" t="s">
         <v>60</v>
@@ -43234,16 +43228,16 @@
     </row>
     <row r="237" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B237">
-        <v>10423</v>
+        <v>10151</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>587</v>
+        <v>72</v>
       </c>
       <c r="E237" s="1" t="s">
         <v>60</v>
@@ -43288,7 +43282,7 @@
         <v>63</v>
       </c>
       <c r="S237" s="1" t="s">
-        <v>146</v>
+        <v>289</v>
       </c>
       <c r="T237" s="1" t="s">
         <v>60</v>
@@ -43410,13 +43404,13 @@
         <v>588</v>
       </c>
       <c r="B238">
-        <v>10151</v>
+        <v>10424</v>
       </c>
       <c r="C238" s="1" t="s">
         <v>589</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>72</v>
+        <v>585</v>
       </c>
       <c r="E238" s="1" t="s">
         <v>60</v>
@@ -43461,7 +43455,7 @@
         <v>63</v>
       </c>
       <c r="S238" s="1" t="s">
-        <v>291</v>
+        <v>144</v>
       </c>
       <c r="T238" s="1" t="s">
         <v>60</v>
@@ -43583,13 +43577,13 @@
         <v>590</v>
       </c>
       <c r="B239">
-        <v>10424</v>
+        <v>10143</v>
       </c>
       <c r="C239" s="1" t="s">
         <v>591</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>587</v>
+        <v>72</v>
       </c>
       <c r="E239" s="1" t="s">
         <v>60</v>
@@ -43634,7 +43628,7 @@
         <v>63</v>
       </c>
       <c r="S239" s="1" t="s">
-        <v>146</v>
+        <v>289</v>
       </c>
       <c r="T239" s="1" t="s">
         <v>60</v>
@@ -43756,13 +43750,13 @@
         <v>592</v>
       </c>
       <c r="B240">
-        <v>10143</v>
+        <v>10425</v>
       </c>
       <c r="C240" s="1" t="s">
         <v>593</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>72</v>
+        <v>585</v>
       </c>
       <c r="E240" s="1" t="s">
         <v>60</v>
@@ -43807,7 +43801,7 @@
         <v>63</v>
       </c>
       <c r="S240" s="1" t="s">
-        <v>291</v>
+        <v>144</v>
       </c>
       <c r="T240" s="1" t="s">
         <v>60</v>
@@ -43929,13 +43923,13 @@
         <v>594</v>
       </c>
       <c r="B241">
-        <v>10425</v>
+        <v>10152</v>
       </c>
       <c r="C241" s="1" t="s">
         <v>595</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>587</v>
+        <v>72</v>
       </c>
       <c r="E241" s="1" t="s">
         <v>60</v>
@@ -43980,7 +43974,7 @@
         <v>63</v>
       </c>
       <c r="S241" s="1" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="T241" s="1" t="s">
         <v>60</v>
@@ -44102,13 +44096,13 @@
         <v>596</v>
       </c>
       <c r="B242">
-        <v>10152</v>
+        <v>10426</v>
       </c>
       <c r="C242" s="1" t="s">
         <v>597</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>72</v>
+        <v>585</v>
       </c>
       <c r="E242" s="1" t="s">
         <v>60</v>
@@ -44152,8 +44146,8 @@
       <c r="R242" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="S242" s="1" t="s">
-        <v>126</v>
+      <c r="S242" s="1">
+        <v>180</v>
       </c>
       <c r="T242" s="1" t="s">
         <v>60</v>
@@ -44275,13 +44269,13 @@
         <v>598</v>
       </c>
       <c r="B243">
-        <v>10426</v>
+        <v>10154</v>
       </c>
       <c r="C243" s="1" t="s">
         <v>599</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>587</v>
+        <v>72</v>
       </c>
       <c r="E243" s="1" t="s">
         <v>60</v>
@@ -44325,8 +44319,8 @@
       <c r="R243" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="S243" s="1">
-        <v>180</v>
+      <c r="S243" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="T243" s="1" t="s">
         <v>60</v>
@@ -44448,13 +44442,13 @@
         <v>600</v>
       </c>
       <c r="B244">
-        <v>10154</v>
+        <v>10427</v>
       </c>
       <c r="C244" s="1" t="s">
         <v>601</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>72</v>
+        <v>602</v>
       </c>
       <c r="E244" s="1" t="s">
         <v>60</v>
@@ -44499,7 +44493,7 @@
         <v>63</v>
       </c>
       <c r="S244" s="1" t="s">
-        <v>126</v>
+        <v>603</v>
       </c>
       <c r="T244" s="1" t="s">
         <v>60</v>
@@ -44613,21 +44607,21 @@
         <v>61</v>
       </c>
       <c r="BE244" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="245" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="B245">
-        <v>10427</v>
+        <v>10155</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>604</v>
+        <v>72</v>
       </c>
       <c r="E245" s="1" t="s">
         <v>60</v>
@@ -44672,7 +44666,7 @@
         <v>63</v>
       </c>
       <c r="S245" s="1" t="s">
-        <v>605</v>
+        <v>73</v>
       </c>
       <c r="T245" s="1" t="s">
         <v>60</v>
@@ -44786,179 +44780,6 @@
         <v>61</v>
       </c>
       <c r="BE245" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="246" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A246" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="B246">
-        <v>10155</v>
-      </c>
-      <c r="C246" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="D246" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E246" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F246" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G246" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H246" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I246" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J246" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K246" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="L246" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="M246" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="N246" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="O246" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="P246" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q246" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="R246" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="S246" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="T246" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="U246" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="V246" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="W246" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="X246" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y246" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z246" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA246" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB246" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC246" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD246" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE246" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF246" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG246" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AH246" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI246" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AJ246" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AK246" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL246" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AM246" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AN246" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AO246" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AP246" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AQ246" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AR246" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AS246" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AT246" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AU246" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AV246" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AW246" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AX246" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AY246" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AZ246" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BA246" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BB246" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BC246" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BD246" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BE246" s="1" t="s">
         <v>61</v>
       </c>
     </row>
